--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="809">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -1292,13 +1292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># それぞれのエクセルシートが JGA メタデータオブジェクトに対応しています。</t>
-    <rPh sb="32" eb="34">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JGA へのデータ登録については、以下のウェブサイトをご覧ください。</t>
     <rPh sb="9" eb="11">
       <t>トウロク</t>
@@ -1312,13 +1305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>連絡先: jga@ddbj.nig.ac.jp</t>
-    <rPh sb="0" eb="3">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必須項目</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -1466,19 +1452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># 登録日。JGA で記入します</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Submission Date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1488,32 +1461,6 @@
   </si>
   <si>
     <t>Reverse</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JGA メタデータ登録シート</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JGA へデータを登録するためには、データ提供を NBDC に申請し承認されている必要があります。</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2297,25 +2244,6 @@
     <t># Analysis の概要</t>
     <rPh sb="12" eb="14">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># データ提供申請に対し NBDC から発行された Research ID (例: hum0004)</t>
-    <rPh sb="5" eb="7">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3807,71 +3735,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t># "Hold" か "Release immediately" を選択。"Hold" の場合、データの共有が可能になったら JGA チームに連絡します。公開予定日を指定することはできません。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データは submission (JSUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
-    </r>
-    <rPh sb="34" eb="36">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ヨテイビ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データは submission (JSUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NBDC Number (hum)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4235,6 +4098,166 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JGA/AGD メタデータ登録シート</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JGA/AGD へデータを登録するためには、データ提供を NBDC に申請し承認されている必要があります。</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データは submission (JSUB/ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGD へのデータ登録については、以下のウェブサイトをご覧ください。</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ddbj.nig.ac.jp/agd/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGD 統合</t>
+    <rPh sb="4" eb="6">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># データ提供申請に対し NBDC から発行された Research ID (例: hum0004)。AGD の場合、agd0000 形式の ID (例: agd0001)</t>
+    <rPh sb="5" eb="7">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t># "Hold" か "Release immediately" を選択。"Hold" の場合、データの共有が可能になったら JGA/AGD チームに連絡します。公開予定日を指定することはできません。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データは submission (JSUB/ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>ヨテイビ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 登録日</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># それぞれのエクセルシートが JGA/AGD メタデータオブジェクトに対応しています。</t>
+    <rPh sb="36" eb="38">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4779,7 +4802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4790,215 +4813,232 @@
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A15" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="23"/>
+      <c r="B18" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="25"/>
+      <c r="B20" s="1" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="24"/>
-      <c r="B17" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="9">
-        <v>44678</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B28" s="9">
-        <v>42285</v>
+      <c r="A27" s="9">
+        <v>44918</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B29" s="9">
-        <v>42429</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="B30" s="9">
-        <v>42430</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="B31" s="9">
-        <v>42486</v>
+        <v>42429</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="B32" s="9">
-        <v>42760</v>
+        <v>42430</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>692</v>
+        <v>644</v>
       </c>
       <c r="B33" s="9">
-        <v>42935</v>
+        <v>42486</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>726</v>
+        <v>649</v>
       </c>
       <c r="B34" s="9">
-        <v>42935</v>
+        <v>42760</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>741</v>
+        <v>686</v>
       </c>
       <c r="B35" s="9">
-        <v>43227</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>749</v>
+        <v>720</v>
       </c>
       <c r="B36" s="9">
-        <v>44103</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="B37" s="9">
-        <v>44622</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>791</v>
+        <v>743</v>
       </c>
       <c r="B38" s="9">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B39" s="9">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B40" s="9">
         <v>44678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B41" s="9">
+        <v>44918</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2" display="https://www.ddbj.nig.ac.jp/jga/index.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5063,7 +5103,7 @@
         <v>361</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>334</v>
@@ -5075,13 +5115,13 @@
         <v>334</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="Q1" s="4"/>
     </row>
@@ -5105,13 +5145,13 @@
         <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5123,13 +5163,13 @@
         <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5155,7 +5195,7 @@
         <v>363</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>335</v>
@@ -5164,22 +5204,22 @@
         <v>355</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
@@ -5205,16 +5245,16 @@
         <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
@@ -5234,22 +5274,22 @@
         <v>303</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
@@ -5266,7 +5306,7 @@
         <v>282</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>358</v>
@@ -5281,7 +5321,7 @@
         <v>370</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
@@ -5304,7 +5344,7 @@
         <v>359</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>378</v>
@@ -5313,7 +5353,7 @@
         <v>371</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
@@ -5336,7 +5376,7 @@
         <v>360</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>379</v>
@@ -5345,7 +5385,7 @@
         <v>372</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
@@ -5362,10 +5402,10 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>339</v>
@@ -5374,7 +5414,7 @@
         <v>373</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
@@ -5388,22 +5428,22 @@
         <v>286</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
@@ -5420,19 +5460,19 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
@@ -5440,28 +5480,28 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
@@ -5472,16 +5512,16 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>340</v>
@@ -5490,7 +5530,7 @@
         <v>374</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
@@ -5501,13 +5541,13 @@
         <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5519,7 +5559,7 @@
         <v>375</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
@@ -5527,25 +5567,25 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
@@ -5553,10 +5593,10 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>312</v>
@@ -5565,10 +5605,10 @@
         <v>380</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -5585,15 +5625,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5602,10 +5642,10 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
@@ -5613,21 +5653,21 @@
         <v>257</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5636,49 +5676,49 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>381</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5690,12 +5730,12 @@
         <v>382</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5707,12 +5747,12 @@
         <v>383</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5724,12 +5764,12 @@
         <v>384</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5738,15 +5778,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5755,15 +5795,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5772,18 +5812,18 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>385</v>
@@ -5791,7 +5831,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -5805,7 +5845,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -5819,10 +5859,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>388</v>
@@ -5855,7 +5895,7 @@
         <v>260</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>391</v>
@@ -5866,7 +5906,7 @@
         <v>261</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>392</v>
@@ -5877,7 +5917,7 @@
         <v>262</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>393</v>
@@ -5912,7 +5952,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>397</v>
@@ -5920,15 +5960,15 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>398</v>
@@ -5939,31 +5979,31 @@
         <v>266</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
@@ -5971,31 +6011,31 @@
         <v>267</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
@@ -6013,62 +6053,62 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -6086,9 +6126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6101,12 +6139,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -6114,12 +6152,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>754</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="26" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -6130,7 +6168,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -6138,39 +6176,39 @@
         <v>13</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -6221,12 +6259,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>421</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="26" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
@@ -6271,7 +6309,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -6287,7 +6325,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -6321,7 +6359,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -6337,33 +6375,33 @@
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="26" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
@@ -6390,18 +6428,18 @@
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="26" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -6412,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
@@ -6434,12 +6472,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="27" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
@@ -6447,21 +6485,21 @@
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="28" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
@@ -6488,7 +6526,7 @@
     </row>
     <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
@@ -6499,7 +6537,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
@@ -6527,7 +6565,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
@@ -6572,7 +6610,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -6602,18 +6640,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="27" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -6684,40 +6722,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
@@ -6725,13 +6763,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>1</v>
@@ -6740,22 +6778,22 @@
         <v>353</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
@@ -7422,40 +7460,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
@@ -7474,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>217</v>
@@ -7495,25 +7533,25 @@
         <v>222</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L2" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>571</v>
-      </c>
-      <c r="N2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="O2" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>416</v>
-      </c>
       <c r="Q2" s="26" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -7521,7 +7559,7 @@
         <v>116</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -7532,7 +7570,7 @@
         <v>117</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -7543,7 +7581,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -7554,7 +7592,7 @@
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -7565,7 +7603,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -7576,7 +7614,7 @@
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -7587,7 +7625,7 @@
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -7598,7 +7636,7 @@
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -7609,7 +7647,7 @@
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -7620,7 +7658,7 @@
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -7631,7 +7669,7 @@
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -7642,7 +7680,7 @@
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -7653,7 +7691,7 @@
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -7664,7 +7702,7 @@
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -7675,7 +7713,7 @@
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -7686,7 +7724,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -7697,7 +7735,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -7708,7 +7746,7 @@
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
@@ -7719,7 +7757,7 @@
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
@@ -7730,7 +7768,7 @@
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
@@ -7741,7 +7779,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -7752,7 +7790,7 @@
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -7763,7 +7801,7 @@
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
@@ -7774,7 +7812,7 @@
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -7785,7 +7823,7 @@
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -7796,7 +7834,7 @@
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -7807,7 +7845,7 @@
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -7818,7 +7856,7 @@
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -7829,7 +7867,7 @@
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
@@ -7840,7 +7878,7 @@
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -7851,7 +7889,7 @@
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -7862,7 +7900,7 @@
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
@@ -7873,7 +7911,7 @@
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
@@ -7884,7 +7922,7 @@
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
@@ -7895,7 +7933,7 @@
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
@@ -7906,7 +7944,7 @@
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
@@ -7917,7 +7955,7 @@
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
@@ -7928,7 +7966,7 @@
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
@@ -7939,7 +7977,7 @@
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -7950,7 +7988,7 @@
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
@@ -7961,7 +7999,7 @@
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
@@ -7972,7 +8010,7 @@
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
@@ -7983,7 +8021,7 @@
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
@@ -7994,7 +8032,7 @@
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
@@ -8005,7 +8043,7 @@
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
@@ -8016,7 +8054,7 @@
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
@@ -8027,7 +8065,7 @@
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
@@ -8038,7 +8076,7 @@
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
@@ -8049,7 +8087,7 @@
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
@@ -8060,7 +8098,7 @@
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
@@ -8071,7 +8109,7 @@
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
@@ -8082,7 +8120,7 @@
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
@@ -8093,7 +8131,7 @@
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
@@ -8104,7 +8142,7 @@
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
@@ -8115,7 +8153,7 @@
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
@@ -8126,7 +8164,7 @@
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
@@ -8137,7 +8175,7 @@
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
@@ -8148,7 +8186,7 @@
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
@@ -8159,7 +8197,7 @@
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
@@ -8170,7 +8208,7 @@
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
@@ -8181,7 +8219,7 @@
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
@@ -8192,7 +8230,7 @@
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
@@ -8203,7 +8241,7 @@
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -8214,7 +8252,7 @@
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
@@ -8225,7 +8263,7 @@
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
@@ -8236,7 +8274,7 @@
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
@@ -8247,7 +8285,7 @@
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
@@ -8258,7 +8296,7 @@
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
@@ -8269,7 +8307,7 @@
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
@@ -8280,7 +8318,7 @@
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
@@ -8291,7 +8329,7 @@
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
@@ -8302,7 +8340,7 @@
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
@@ -8313,7 +8351,7 @@
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
@@ -8324,7 +8362,7 @@
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
@@ -8335,7 +8373,7 @@
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
@@ -8346,7 +8384,7 @@
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
@@ -8357,7 +8395,7 @@
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
@@ -8368,7 +8406,7 @@
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
@@ -8379,7 +8417,7 @@
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
@@ -8390,7 +8428,7 @@
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
@@ -8401,7 +8439,7 @@
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
@@ -8412,7 +8450,7 @@
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
@@ -8423,7 +8461,7 @@
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
@@ -8434,7 +8472,7 @@
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
@@ -8445,7 +8483,7 @@
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
@@ -8456,7 +8494,7 @@
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
@@ -8467,7 +8505,7 @@
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
@@ -8478,7 +8516,7 @@
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
@@ -8489,7 +8527,7 @@
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
@@ -8500,7 +8538,7 @@
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
@@ -8511,7 +8549,7 @@
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
@@ -8522,7 +8560,7 @@
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
@@ -8533,7 +8571,7 @@
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
@@ -8544,7 +8582,7 @@
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
@@ -8555,7 +8593,7 @@
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
@@ -8566,7 +8604,7 @@
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
@@ -8577,7 +8615,7 @@
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
@@ -8588,7 +8626,7 @@
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
@@ -8599,7 +8637,7 @@
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
@@ -8610,7 +8648,7 @@
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -8702,22 +8740,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -8728,574 +8766,574 @@
         <v>331</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="30" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="30" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="30" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="30" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="30" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="30" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="30" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="30" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="30" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="30" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="30" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="30" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="30" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="30" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="30" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="30" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="30" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="30" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="30" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="30" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="30" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="30" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="30" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="30" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="30" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="30" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="30" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="30" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="30" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="30" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="30" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="30" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="30" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="30" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="30" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="30" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="30" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="30" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="30" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="30" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="30" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="30" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="30" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="30" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="30" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="30" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="30" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="30" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="30" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="30" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="30" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="30" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="30" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="30" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="30" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="30" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="30" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="30" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="30" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="30" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="30" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="30" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="30" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="30" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="30" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="30" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="30" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="30" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="30" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="30" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="30" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="30" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="30" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="30" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="30" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="30" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="30" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="30" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="30" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="30" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="30" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="30" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="30" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="30" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="30" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="30" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="30" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="30" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="30" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="30" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="30" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="30" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="30" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="30" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="30" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="30" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="30" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -9336,65 +9374,65 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -9402,13 +9440,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>352</v>
@@ -9426,40 +9464,40 @@
         <v>333</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="R2" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>797</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -9467,7 +9505,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -9588,25 +9626,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -9614,7 +9652,7 @@
         <v>330</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>366</v>
@@ -9681,18 +9719,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125306F-2844-492A-BCE0-AD7165867D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -4265,7 +4266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4420,18 +4421,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4440,23 +4438,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4471,7 +4458,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4591,6 +4577,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4626,6 +4629,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4801,108 +4821,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="126.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A5" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A6" s="14" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="23"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4910,132 +4930,132 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="9">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A27" s="7">
         <v>44918</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>42285</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="7">
         <v>42429</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="7">
         <v>42430</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <v>42486</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>42760</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>42935</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>42935</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="7">
         <v>43227</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <v>44103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="7">
         <v>44622</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="7">
         <v>44678</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="7">
         <v>44918</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1"/>
-    <hyperlink ref="A15" r:id="rId2" display="https://www.ddbj.nig.ac.jp/jga/index.html"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" display="https://www.ddbj.nig.ac.jp/jga/index.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
@@ -5048,84 +5068,83 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="22" t="s">
         <v>794</v>
       </c>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5165,7 +5184,7 @@
       <c r="M2" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="12" t="s">
         <v>607</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -5175,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -5215,14 +5234,14 @@
       <c r="M3" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="12" t="s">
         <v>608</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
@@ -5253,11 +5272,11 @@
       <c r="L4" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="12" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
@@ -5288,11 +5307,11 @@
       <c r="L5" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -5320,11 +5339,11 @@
       <c r="L6" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="12" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
@@ -5352,11 +5371,11 @@
       <c r="L7" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>233</v>
       </c>
@@ -5384,11 +5403,11 @@
       <c r="L8" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="12" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>234</v>
       </c>
@@ -5413,11 +5432,11 @@
       <c r="L9" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="12" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>235</v>
       </c>
@@ -5442,11 +5461,11 @@
       <c r="L10" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="12" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>236</v>
       </c>
@@ -5471,11 +5490,11 @@
       <c r="L11" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="12" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
@@ -5500,11 +5519,11 @@
       <c r="L12" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="12" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
@@ -5529,11 +5548,11 @@
       <c r="L13" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="12" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
@@ -5558,11 +5577,11 @@
       <c r="L14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="12" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
@@ -5584,11 +5603,11 @@
       <c r="L15" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="12" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -5607,11 +5626,11 @@
       <c r="L16" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="12" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
@@ -5627,11 +5646,11 @@
       <c r="K17" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="12" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B18" s="1" t="s">
         <v>717</v>
       </c>
@@ -5644,11 +5663,11 @@
       <c r="K18" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B19" s="1" t="s">
         <v>257</v>
       </c>
@@ -5661,11 +5680,11 @@
       <c r="K19" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B20" s="1" t="s">
         <v>740</v>
       </c>
@@ -5678,11 +5697,11 @@
       <c r="K20" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="12" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B21" s="1" t="s">
         <v>741</v>
       </c>
@@ -5695,11 +5714,11 @@
       <c r="K21" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="12" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B22" s="1" t="s">
         <v>653</v>
       </c>
@@ -5712,11 +5731,11 @@
       <c r="K22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="12" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B23" s="1" t="s">
         <v>654</v>
       </c>
@@ -5729,11 +5748,11 @@
       <c r="K23" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="12" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B24" s="1" t="s">
         <v>655</v>
       </c>
@@ -5746,11 +5765,11 @@
       <c r="K24" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="12" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B25" s="1" t="s">
         <v>656</v>
       </c>
@@ -5763,11 +5782,11 @@
       <c r="K25" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="12" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B26" s="1" t="s">
         <v>763</v>
       </c>
@@ -5780,11 +5799,11 @@
       <c r="K26" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="12" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B27" s="1" t="s">
         <v>764</v>
       </c>
@@ -5797,11 +5816,11 @@
       <c r="K27" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="12" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B28" s="1" t="s">
         <v>757</v>
       </c>
@@ -5815,7 +5834,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B29" s="1" t="s">
         <v>758</v>
       </c>
@@ -5829,7 +5848,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B30" s="1" t="s">
         <v>759</v>
       </c>
@@ -5843,7 +5862,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B31" s="1" t="s">
         <v>760</v>
       </c>
@@ -5857,7 +5876,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B32" s="1" t="s">
         <v>762</v>
       </c>
@@ -5868,7 +5887,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B33" s="1" t="s">
         <v>258</v>
       </c>
@@ -5879,7 +5898,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B34" s="1" t="s">
         <v>259</v>
       </c>
@@ -5890,7 +5909,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B35" s="1" t="s">
         <v>260</v>
       </c>
@@ -5901,7 +5920,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B36" s="1" t="s">
         <v>261</v>
       </c>
@@ -5912,7 +5931,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B37" s="1" t="s">
         <v>262</v>
       </c>
@@ -5923,7 +5942,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5934,7 +5953,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B39" s="1" t="s">
         <v>264</v>
       </c>
@@ -5942,7 +5961,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B40" s="1" t="s">
         <v>265</v>
       </c>
@@ -5950,7 +5969,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B41" s="1" t="s">
         <v>657</v>
       </c>
@@ -5958,7 +5977,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B42" s="1" t="s">
         <v>658</v>
       </c>
@@ -5966,7 +5985,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B43" s="1" t="s">
         <v>659</v>
       </c>
@@ -5974,7 +5993,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B44" s="1" t="s">
         <v>266</v>
       </c>
@@ -5982,7 +6001,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B45" s="1" t="s">
         <v>660</v>
       </c>
@@ -5990,7 +6009,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B46" s="1" t="s">
         <v>661</v>
       </c>
@@ -5998,7 +6017,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B47" s="1" t="s">
         <v>662</v>
       </c>
@@ -6006,7 +6025,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B48" s="1" t="s">
         <v>267</v>
       </c>
@@ -6014,7 +6033,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B49" s="1" t="s">
         <v>663</v>
       </c>
@@ -6022,7 +6041,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B50" s="1" t="s">
         <v>664</v>
       </c>
@@ -6030,7 +6049,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B51" s="1" t="s">
         <v>761</v>
       </c>
@@ -6038,7 +6057,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B52" s="1" t="s">
         <v>268</v>
       </c>
@@ -6046,67 +6065,67 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B53" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B54" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B55" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B56" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B57" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B58" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B59" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B60" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B61" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B62" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B63" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B64" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B65" s="1" t="s">
         <v>671</v>
       </c>
@@ -6123,76 +6142,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="24.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6640625" style="1"/>
+    <col min="4" max="4" width="43.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="18" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="21" t="s">
         <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6211,71 +6227,71 @@
         <v>586</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="30">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="22">
         <v>2</v>
       </c>
-      <c r="D12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="30">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="30">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="30">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="30">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="30">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A17" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="30">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A18" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="30">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="30">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A20" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A23" s="18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A24" s="9">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A24" s="7">
         <v>43623</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 B8:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 B8:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Hold,Release immediately"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6290,393 +6306,338 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="1"/>
-    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="1"/>
+    <col min="1" max="1" width="48.6328125" style="1"/>
+    <col min="2" max="2" width="61.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="30">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="30">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A9" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A16" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="18" t="s">
         <v>598</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="30">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="30">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A19" s="22">
         <v>3</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:3" ht="87.5" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="10" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A22" s="18" t="s">
         <v>731</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="30">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A23" s="22">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="30">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A24" s="22">
         <v>2</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="30">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A25" s="22">
         <v>3</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A28" s="19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="52.2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="52.5" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A31" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="20" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="30">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A32" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A33" s="22">
         <v>2</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="30">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A34" s="22">
         <v>3</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="28" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="19" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="30">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A38" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A39" s="22">
         <v>2</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="30">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A40" s="22">
         <v>3</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="30">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A44" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A45" s="22">
         <v>2</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="30">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A46" s="22">
         <v>3</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="30">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A50" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A51" s="22">
         <v>2</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="30">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A52" s="22">
         <v>3</v>
       </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A55" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="19" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="30">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A56" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A57" s="22">
         <v>2</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="30">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A58" s="22">
         <v>3</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Case-Control,Case Set,Control Set,Tumor vs. Matched-Normal,Cohort,Longitudinal,Population,Family,Parent-Offspring Trios,Twin,Clinical Trial,Whole Genome Sequencing,Exome Sequencing,Transcriptome Sequencing,GWAS,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6688,7 +6649,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$17</xm:f>
           </x14:formula1>
@@ -6704,23 +6665,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="12"/>
-    <col min="2" max="2" width="24.88671875" style="1"/>
-    <col min="3" max="3" width="24.88671875" style="18"/>
-    <col min="4" max="4" width="24.88671875" style="14"/>
-    <col min="5" max="6" width="24.88671875" style="1"/>
-    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.88671875" style="1"/>
+    <col min="1" max="1" width="24.90625" style="9"/>
+    <col min="2" max="2" width="24.90625" style="1"/>
+    <col min="3" max="4" width="24.90625" style="8"/>
+    <col min="5" max="6" width="24.90625" style="1"/>
+    <col min="7" max="7" width="49.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>434</v>
       </c>
@@ -6754,661 +6714,661 @@
       <c r="K1" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="19" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="30" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="30" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="30" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="30" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="30" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="30" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="30" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="30" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="30" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="30" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="30" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="30" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="30" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="30" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="30" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="30" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="30" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="30" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="30" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A35" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="30" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="30" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="30" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A38" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" s="30" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" s="30" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A40" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" s="30" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A41" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A42" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" s="30" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A43" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" s="30" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A44" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" s="30" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A46" s="30" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A47" s="30" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A47" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" s="30" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A48" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" s="30" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A49" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" s="30" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A50" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="30" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" s="30" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A52" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A53" s="30" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A53" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" s="30" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A54" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A55" s="30" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A55" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A56" s="30" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A56" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" s="30" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A57" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" s="30" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A58" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" s="30" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A59" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" s="30" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A60" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="30" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A61" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A62" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A63" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A64" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A65" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A66" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A67" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A68" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A69" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A70" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A71" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A72" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A73" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A74" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A75" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A76" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A77" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A78" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A79" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A80" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A81" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="30" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A82" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A83" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="30" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A84" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="30" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A85" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="30" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A86" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="30" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A87" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A88" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="30" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A89" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="30" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A90" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="30" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A91" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="30" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A92" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A93" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="30" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A94" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A95" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="30" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A96" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="30" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A97" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A98" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A99" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="30" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A100" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="30" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A101" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="30" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A102" s="22" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7425,40 +7385,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="36.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.08984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>435</v>
       </c>
@@ -7480,10 +7440,10 @@
       <c r="G1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>551</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -7492,70 +7452,70 @@
       <c r="K1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="18" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -7565,8 +7525,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>117</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -7576,8 +7536,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7587,8 +7547,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -7598,8 +7558,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -7609,8 +7569,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -7620,8 +7580,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A9" s="22" t="s">
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -7631,8 +7591,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A10" s="22" t="s">
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -7642,8 +7602,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -7653,8 +7613,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -7664,8 +7624,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -7675,8 +7635,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A14" s="22" t="s">
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -7686,8 +7646,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A15" s="22" t="s">
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -7697,8 +7657,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A16" s="22" t="s">
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -7708,8 +7668,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A17" s="22" t="s">
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -7719,8 +7679,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A18" s="22" t="s">
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -7730,8 +7690,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -7741,8 +7701,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A20" s="22" t="s">
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -7752,8 +7712,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A21" s="22" t="s">
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -7763,8 +7723,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A22" s="22" t="s">
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -7774,8 +7734,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A23" s="22" t="s">
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -7785,8 +7745,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A24" s="22" t="s">
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -7796,8 +7756,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -7807,8 +7767,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A26" s="22" t="s">
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -7818,8 +7778,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A27" s="22" t="s">
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -7829,8 +7789,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A28" s="22" t="s">
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -7840,8 +7800,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A29" s="22" t="s">
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -7851,8 +7811,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A30" s="22" t="s">
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -7862,8 +7822,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A31" s="22" t="s">
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -7873,8 +7833,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A32" s="22" t="s">
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -7884,8 +7844,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A33" s="22" t="s">
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -7895,8 +7855,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A34" s="22" t="s">
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -7906,8 +7866,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A35" s="22" t="s">
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -7917,8 +7877,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A36" s="22" t="s">
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -7928,8 +7888,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A37" s="22" t="s">
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -7939,8 +7899,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A38" s="22" t="s">
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -7950,8 +7910,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A39" s="22" t="s">
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -7961,8 +7921,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A40" s="22" t="s">
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -7972,8 +7932,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A41" s="30" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A41" s="22" t="s">
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -7983,8 +7943,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A42" s="22" t="s">
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -7994,8 +7954,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A43" s="22" t="s">
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -8005,8 +7965,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A44" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -8016,8 +7976,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A45" s="22" t="s">
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -8027,8 +7987,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="30" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A46" s="22" t="s">
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -8038,8 +7998,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A47" s="30" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A47" s="22" t="s">
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -8049,8 +8009,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="30" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A48" s="22" t="s">
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -8060,8 +8020,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="30" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A49" s="22" t="s">
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -8071,8 +8031,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="30" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A50" s="22" t="s">
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -8082,8 +8042,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="30" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A51" s="22" t="s">
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -8093,8 +8053,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A52" s="22" t="s">
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -8104,8 +8064,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A53" s="22" t="s">
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -8115,8 +8075,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A54" s="30" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A54" s="22" t="s">
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -8126,8 +8086,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A55" s="30" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A55" s="22" t="s">
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -8137,8 +8097,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A56" s="30" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A56" s="22" t="s">
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -8148,8 +8108,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A57" s="30" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A57" s="22" t="s">
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -8159,8 +8119,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A58" s="30" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A58" s="22" t="s">
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -8170,8 +8130,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A59" s="30" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A59" s="22" t="s">
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
@@ -8181,8 +8141,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A60" s="30" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A60" s="22" t="s">
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -8192,8 +8152,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A61" s="30" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A61" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
@@ -8203,8 +8163,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A62" s="22" t="s">
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -8214,8 +8174,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A63" s="22" t="s">
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -8225,8 +8185,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A64" s="22" t="s">
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -8236,8 +8196,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A65" s="22" t="s">
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -8247,8 +8207,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A66" s="22" t="s">
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -8258,8 +8218,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A67" s="22" t="s">
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -8269,8 +8229,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A68" s="22" t="s">
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -8280,8 +8240,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A69" s="22" t="s">
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -8291,8 +8251,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A70" s="22" t="s">
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -8302,8 +8262,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A71" s="22" t="s">
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -8313,8 +8273,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A72" s="22" t="s">
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -8324,8 +8284,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A73" s="22" t="s">
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -8335,8 +8295,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A74" s="22" t="s">
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -8346,8 +8306,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A75" s="22" t="s">
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -8357,8 +8317,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A76" s="22" t="s">
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -8368,8 +8328,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A77" s="22" t="s">
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -8379,8 +8339,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A78" s="22" t="s">
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -8390,8 +8350,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A79" s="22" t="s">
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -8401,8 +8361,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A80" s="22" t="s">
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -8412,8 +8372,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A81" s="22" t="s">
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -8423,8 +8383,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A82" s="30" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A82" s="22" t="s">
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -8434,8 +8394,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A83" s="22" t="s">
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -8445,8 +8405,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A84" s="30" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A84" s="22" t="s">
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -8456,8 +8416,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A85" s="30" t="s">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A85" s="22" t="s">
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
@@ -8467,8 +8427,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A86" s="30" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A86" s="22" t="s">
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -8478,8 +8438,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A87" s="30" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A87" s="22" t="s">
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -8489,8 +8449,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A88" s="22" t="s">
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -8500,8 +8460,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A89" s="30" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A89" s="22" t="s">
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -8511,8 +8471,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A90" s="30" t="s">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A90" s="22" t="s">
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
@@ -8522,8 +8482,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A91" s="30" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A91" s="22" t="s">
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -8533,8 +8493,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A92" s="30" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A92" s="22" t="s">
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
@@ -8544,8 +8504,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A93" s="22" t="s">
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -8555,8 +8515,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A94" s="30" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A94" s="22" t="s">
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -8566,8 +8526,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A95" s="22" t="s">
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -8577,8 +8537,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A96" s="30" t="s">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A96" s="22" t="s">
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
@@ -8588,8 +8548,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A97" s="30" t="s">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A97" s="22" t="s">
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -8599,8 +8559,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A98" s="22" t="s">
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -8610,8 +8570,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A99" s="22" t="s">
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -8621,8 +8581,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A100" s="30" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A100" s="22" t="s">
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
@@ -8632,8 +8592,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A101" s="30" t="s">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A101" s="22" t="s">
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -8643,8 +8603,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A102" s="30" t="s">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A102" s="22" t="s">
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -8664,49 +8624,49 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Admin!$F$2:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>K3:K102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>Admin!$G$2:$G$3</xm:f>
           </x14:formula1>
           <xm:sqref>P3:P102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$4</xm:f>
           </x14:formula1>
           <xm:sqref>X4:X102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>Admin!$D$2:$D$31</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
             <xm:f>Admin!$J$2:$J$6</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
             <xm:f>Admin!$B$2:$B$65</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
             <xm:f>Admin!$E$2:$E$38</xm:f>
           </x14:formula1>
@@ -8722,617 +8682,559 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="38" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="38" style="9" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.08984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>749</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="19" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A9" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="30" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="30" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="30" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="30" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="30" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A17" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="30" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A18" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A19" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A20" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="30" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A21" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="30" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A22" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A23" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="30" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A24" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="30" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A25" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="30" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A26" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A27" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="30" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="30" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A29" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="30" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A30" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="30" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A31" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="30" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A32" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="30" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A33" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="30" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A34" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="30" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A35" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="30" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A36" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="30" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A37" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="30" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A38" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="30" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A39" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="30" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A40" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="30" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A41" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A42" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="30" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A43" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="30" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A44" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="30" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A45" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="30" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A46" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="30" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A47" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="30" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A48" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="30" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A49" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="30" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A50" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="30" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A51" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="30" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A52" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="30" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A53" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="30" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A54" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="30" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A55" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="30" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A56" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="30" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A57" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="30" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A58" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="30" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A59" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="30" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A60" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="30" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A61" s="22" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A62" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A63" s="22" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A64" s="22" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A65" s="22" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A66" s="22" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A67" s="22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A68" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A69" s="22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A70" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A71" s="22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A72" s="22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A73" s="22" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A74" s="22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A75" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A76" s="22" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A77" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A78" s="22" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A79" s="22" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A80" s="22" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A81" s="22" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="30" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A82" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A83" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="30" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A84" s="22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="30" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A85" s="22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="30" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A86" s="22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="30" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A87" s="22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A88" s="22" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="30" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A89" s="22" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="30" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A90" s="22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="30" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A91" s="22" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="30" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A92" s="22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A93" s="22" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="30" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A94" s="22" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A95" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="30" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A96" s="22" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="30" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A97" s="22" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A98" s="22" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A99" s="22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="30" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A100" s="22" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="30" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A101" s="22" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="30" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A102" s="22" t="s">
         <v>539</v>
       </c>
     </row>
@@ -9343,7 +9245,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$5</xm:f>
           </x14:formula1>
@@ -9359,20 +9261,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="18.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="4"/>
-    <col min="2" max="16384" width="18.88671875" style="1"/>
+    <col min="1" max="16384" width="18.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>543</v>
       </c>
@@ -9394,32 +9295,31 @@
       <c r="G1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="13" t="s">
         <v>792</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -9431,125 +9331,125 @@
       <c r="T1" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="10" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="18" t="s">
         <v>687</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="23" t="s">
         <v>788</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="23" t="s">
         <v>789</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="19" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A9" s="22" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A10" s="22" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9560,43 +9460,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$4</xm:f>
           </x14:formula1>
           <xm:sqref>I101:I102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Admin!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I34:I100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
           <x14:formula1>
             <xm:f>Admin!$J$2:$J$14</xm:f>
           </x14:formula1>
           <xm:sqref>L3:L12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000003000000}">
           <x14:formula1>
             <xm:f>Admin!$I$2:$I$15</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000004000000}">
           <x14:formula1>
             <xm:f>Admin!$K$2:$K$52</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000005000000}">
           <x14:formula1>
             <xm:f>Admin!$O$2:$O$3</xm:f>
           </x14:formula1>
           <xm:sqref>Q3:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
           <x14:formula1>
             <xm:f>Admin!$P$2</xm:f>
           </x14:formula1>
@@ -9612,19 +9512,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="28.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="28.109375" style="1"/>
+    <col min="1" max="16384" width="28.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>556</v>
       </c>
@@ -9647,36 +9547,36 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9687,7 +9587,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$L$2:$L$16</xm:f>
           </x14:formula1>
@@ -9703,21 +9603,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.33203125" style="1"/>
+    <col min="2" max="2" width="73.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>746</v>
       </c>
@@ -9725,11 +9625,11 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>745</v>
       </c>
     </row>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125306F-2844-492A-BCE0-AD7165867D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1FB71E-26B4-4D5C-B86E-389AABA7A051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3582,10 +3582,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDC-10 code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Disease classification(s)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4260,6 +4256,10 @@
     <rPh sb="36" eb="38">
       <t>タイオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICD-10 code</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4502,9 +4502,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4542,9 +4542,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4577,26 +4577,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4629,26 +4612,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4835,7 +4801,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
@@ -4845,7 +4811,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.6">
@@ -4855,12 +4821,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A6" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.6">
@@ -4868,7 +4834,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.6">
@@ -4883,7 +4849,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
@@ -4891,12 +4857,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.6">
@@ -5013,7 +4979,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B37" s="7">
         <v>43227</v>
@@ -5021,7 +4987,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B38" s="7">
         <v>44103</v>
@@ -5029,7 +4995,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B39" s="7">
         <v>44622</v>
@@ -5037,7 +5003,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B40" s="7">
         <v>44678</v>
@@ -5045,7 +5011,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B41" s="7">
         <v>44918</v>
@@ -5138,10 +5104,10 @@
         <v>633</v>
       </c>
       <c r="O1" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>793</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.6">
@@ -5170,7 +5136,7 @@
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5188,7 +5154,7 @@
         <v>607</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5226,7 +5192,7 @@
         <v>699</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>570</v>
@@ -5238,7 +5204,7 @@
         <v>608</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.6">
@@ -5267,7 +5233,7 @@
         <v>700</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>571</v>
@@ -5450,7 +5416,7 @@
         <v>673</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>705</v>
@@ -5479,7 +5445,7 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
@@ -5502,13 +5468,13 @@
         <v>650</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>706</v>
@@ -5531,7 +5497,7 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
@@ -5595,10 +5561,10 @@
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>558</v>
@@ -5644,7 +5610,7 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>622</v>
@@ -5661,7 +5627,7 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>623</v>
@@ -5678,7 +5644,7 @@
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>624</v>
@@ -5686,7 +5652,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B20" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5695,7 +5661,7 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>625</v>
@@ -5703,7 +5669,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B21" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5712,7 +5678,7 @@
         <v>674</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>626</v>
@@ -5788,7 +5754,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B26" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5797,7 +5763,7 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>631</v>
@@ -5805,7 +5771,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B27" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5814,7 +5780,7 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>632</v>
@@ -5822,7 +5788,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B28" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5831,12 +5797,12 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B29" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -5850,7 +5816,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B30" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -5864,7 +5830,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B31" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -5878,10 +5844,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B32" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>388</v>
@@ -6006,7 +5972,7 @@
         <v>660</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.6">
@@ -6014,7 +5980,7 @@
         <v>661</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.6">
@@ -6022,7 +5988,7 @@
         <v>662</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.6">
@@ -6051,7 +6017,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B51" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>716</v>
@@ -6082,17 +6048,17 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B56" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B57" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B58" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.6">
@@ -6158,12 +6124,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" s="18" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.6">
@@ -6171,12 +6137,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.6">
@@ -6275,7 +6241,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.6">
@@ -6310,7 +6276,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
@@ -6483,13 +6449,13 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>732</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>733</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.6">
@@ -8706,7 +8672,7 @@
         <v>540</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>415</v>
@@ -9296,7 +9262,7 @@
         <v>415</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>647</v>
@@ -9320,19 +9286,19 @@
         <v>695</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>787</v>
-      </c>
       <c r="U1" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.6">
@@ -9385,19 +9351,19 @@
         <v>691</v>
       </c>
       <c r="Q2" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>788</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>789</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>791</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.6">
@@ -9405,7 +9371,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.6">
@@ -9619,18 +9585,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>744</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>745</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1FB71E-26B4-4D5C-B86E-389AABA7A051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503AD2C-E82D-45F1-B0C5-28FCD16E1F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="810">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -3518,59 +3518,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># ICD-10 http://apps.who.int/classifications/icd10/browse/2016/en
-該当する疾患分類が複数ある場合は複数記入します。</t>
-    <rPh sb="66" eb="68">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>シッカン</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Diseases/Traits/Exposures related to the study</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例: Cancer, Cardiovascular disease, Tobacco use disorder 等のキーワードを記入します
-該当する用語がある場合は Human Phenotype Ontology http://human-phenotype-ontology.github.io の用語を記入します</t>
-    <rPh sb="56" eb="57">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ヨウゴ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ヨウゴ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>キニュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4260,6 +4208,66 @@
   </si>
   <si>
     <t>ICD-10 code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク修正</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># ICD-10
+https://icd.who.int/browse10/2016/en
+該当する疾患分類が複数ある場合は複数記入します。</t>
+    <rPh sb="46" eb="48">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シッカン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例: Cancer, Cardiovascular disease, Tobacco use disorder 等のキーワードを記入します
+該当する用語がある場合は Human Phenotype Ontology https://hpo.jax.org/app/ の用語を記入します</t>
+    <rPh sb="56" eb="57">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>キニュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4788,107 +4796,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="126.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.6">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="14" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.6">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.6">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.6">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4896,32 +4904,32 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>44918</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>580</v>
       </c>
@@ -4929,7 +4937,7 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>590</v>
       </c>
@@ -4937,7 +4945,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>593</v>
       </c>
@@ -4945,7 +4953,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>644</v>
       </c>
@@ -4953,7 +4961,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>649</v>
       </c>
@@ -4961,7 +4969,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>686</v>
       </c>
@@ -4969,7 +4977,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>720</v>
       </c>
@@ -4977,44 +4985,52 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B37" s="7">
         <v>43227</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B38" s="7">
         <v>44103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B39" s="7">
         <v>44622</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B40" s="7">
         <v>44678</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B41" s="7">
         <v>44918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45321</v>
       </c>
     </row>
   </sheetData>
@@ -5041,26 +5057,26 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.90625" style="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>243</v>
       </c>
@@ -5104,13 +5120,13 @@
         <v>633</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5136,7 +5152,7 @@
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5154,13 +5170,13 @@
         <v>607</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -5192,7 +5208,7 @@
         <v>699</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>570</v>
@@ -5204,10 +5220,10 @@
         <v>608</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
@@ -5233,7 +5249,7 @@
         <v>700</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>571</v>
@@ -5242,7 +5258,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
@@ -5277,7 +5293,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -5309,7 +5325,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
@@ -5341,7 +5357,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>233</v>
       </c>
@@ -5373,7 +5389,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>234</v>
       </c>
@@ -5402,7 +5418,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>235</v>
       </c>
@@ -5416,7 +5432,7 @@
         <v>673</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>705</v>
@@ -5431,7 +5447,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>236</v>
       </c>
@@ -5445,7 +5461,7 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
@@ -5460,7 +5476,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
@@ -5468,13 +5484,13 @@
         <v>650</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>706</v>
@@ -5489,7 +5505,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
@@ -5497,7 +5513,7 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
@@ -5518,7 +5534,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
@@ -5547,7 +5563,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
@@ -5561,10 +5577,10 @@
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>558</v>
@@ -5573,7 +5589,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -5596,7 +5612,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
@@ -5610,13 +5626,13 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
         <v>717</v>
       </c>
@@ -5627,13 +5643,13 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
         <v>257</v>
       </c>
@@ -5644,15 +5660,15 @@
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5661,15 +5677,15 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5678,13 +5694,13 @@
         <v>674</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
         <v>653</v>
       </c>
@@ -5701,7 +5717,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
         <v>654</v>
       </c>
@@ -5718,7 +5734,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
         <v>655</v>
       </c>
@@ -5735,7 +5751,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
         <v>656</v>
       </c>
@@ -5752,9 +5768,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5763,15 +5779,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5780,15 +5796,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5797,12 +5813,12 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -5814,9 +5830,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -5828,9 +5844,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -5842,18 +5858,18 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
         <v>258</v>
       </c>
@@ -5864,7 +5880,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
         <v>259</v>
       </c>
@@ -5875,7 +5891,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
         <v>260</v>
       </c>
@@ -5886,7 +5902,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
         <v>261</v>
       </c>
@@ -5897,7 +5913,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
         <v>262</v>
       </c>
@@ -5908,7 +5924,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
         <v>263</v>
       </c>
@@ -5919,7 +5935,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
         <v>264</v>
       </c>
@@ -5927,7 +5943,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
         <v>265</v>
       </c>
@@ -5935,7 +5951,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
         <v>657</v>
       </c>
@@ -5943,7 +5959,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
         <v>658</v>
       </c>
@@ -5951,7 +5967,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
         <v>659</v>
       </c>
@@ -5959,7 +5975,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
         <v>266</v>
       </c>
@@ -5967,31 +5983,31 @@
         <v>712</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
         <v>660</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
         <v>661</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
         <v>662</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
         <v>267</v>
       </c>
@@ -5999,7 +6015,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
         <v>663</v>
       </c>
@@ -6007,7 +6023,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
         <v>664</v>
       </c>
@@ -6015,15 +6031,15 @@
         <v>715</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
         <v>268</v>
       </c>
@@ -6031,67 +6047,67 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B57" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B58" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B57" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B58" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
         <v>671</v>
       </c>
@@ -6113,47 +6129,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6328125" style="1"/>
+    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
@@ -6173,7 +6189,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
         <v>407</v>
       </c>
@@ -6193,63 +6209,63 @@
         <v>586</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>43623</v>
       </c>
@@ -6275,39 +6291,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" style="1"/>
-    <col min="2" max="2" width="61.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6328125" style="1"/>
+    <col min="1" max="1" width="48.6640625" style="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -6318,35 +6332,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>602</v>
       </c>
@@ -6360,7 +6374,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>597</v>
       </c>
@@ -6377,38 +6391,38 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="87.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" s="18" t="s">
         <v>729</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A22" s="18" t="s">
-        <v>731</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="22">
         <v>1</v>
       </c>
@@ -6416,69 +6430,69 @@
         <v>726</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:3" ht="52.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
@@ -6489,27 +6503,27 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="19" t="s">
         <v>12</v>
       </c>
@@ -6526,27 +6540,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="19" t="s">
         <v>14</v>
       </c>
@@ -6554,27 +6568,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="19" t="s">
         <v>578</v>
       </c>
@@ -6585,17 +6599,17 @@
         <v>589</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="22">
         <v>3</v>
       </c>
@@ -6636,17 +6650,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="9"/>
-    <col min="2" max="2" width="24.90625" style="1"/>
-    <col min="3" max="4" width="24.90625" style="8"/>
-    <col min="5" max="6" width="24.90625" style="1"/>
-    <col min="7" max="7" width="49.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.90625" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="9"/>
+    <col min="2" max="2" width="24.88671875" style="1"/>
+    <col min="3" max="4" width="24.88671875" style="8"/>
+    <col min="5" max="6" width="24.88671875" style="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>434</v>
       </c>
@@ -6684,7 +6698,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -6722,618 +6736,618 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>115</v>
       </c>
@@ -7356,35 +7370,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="1"/>
+    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>435</v>
       </c>
@@ -7427,7 +7441,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -7480,7 +7494,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>116</v>
       </c>
@@ -7491,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>117</v>
       </c>
@@ -7502,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>118</v>
       </c>
@@ -7513,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>119</v>
       </c>
@@ -7524,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>120</v>
       </c>
@@ -7535,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>121</v>
       </c>
@@ -7546,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>122</v>
       </c>
@@ -7557,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>123</v>
       </c>
@@ -7568,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>124</v>
       </c>
@@ -7579,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>125</v>
       </c>
@@ -7590,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>126</v>
       </c>
@@ -7601,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>127</v>
       </c>
@@ -7612,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>128</v>
       </c>
@@ -7623,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>129</v>
       </c>
@@ -7634,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>130</v>
       </c>
@@ -7645,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>131</v>
       </c>
@@ -7656,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
@@ -7667,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>133</v>
       </c>
@@ -7678,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>134</v>
       </c>
@@ -7689,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>135</v>
       </c>
@@ -7700,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>136</v>
       </c>
@@ -7711,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>137</v>
       </c>
@@ -7722,7 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
@@ -7733,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>139</v>
       </c>
@@ -7744,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>140</v>
       </c>
@@ -7755,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>141</v>
       </c>
@@ -7766,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>142</v>
       </c>
@@ -7777,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>143</v>
       </c>
@@ -7788,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>144</v>
       </c>
@@ -7799,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>145</v>
       </c>
@@ -7810,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>146</v>
       </c>
@@ -7821,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>147</v>
       </c>
@@ -7832,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>148</v>
       </c>
@@ -7843,7 +7857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>149</v>
       </c>
@@ -7854,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>150</v>
       </c>
@@ -7865,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>151</v>
       </c>
@@ -7876,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>152</v>
       </c>
@@ -7887,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>153</v>
       </c>
@@ -7898,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>154</v>
       </c>
@@ -7909,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>155</v>
       </c>
@@ -7920,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>156</v>
       </c>
@@ -7931,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>157</v>
       </c>
@@ -7942,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>158</v>
       </c>
@@ -7953,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>159</v>
       </c>
@@ -7964,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>160</v>
       </c>
@@ -7975,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>161</v>
       </c>
@@ -7986,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>162</v>
       </c>
@@ -7997,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>163</v>
       </c>
@@ -8008,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>164</v>
       </c>
@@ -8019,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>165</v>
       </c>
@@ -8030,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>166</v>
       </c>
@@ -8041,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>167</v>
       </c>
@@ -8052,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>168</v>
       </c>
@@ -8063,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>169</v>
       </c>
@@ -8074,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>170</v>
       </c>
@@ -8085,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>171</v>
       </c>
@@ -8096,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>172</v>
       </c>
@@ -8107,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>173</v>
       </c>
@@ -8118,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>174</v>
       </c>
@@ -8129,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>175</v>
       </c>
@@ -8140,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>176</v>
       </c>
@@ -8151,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>177</v>
       </c>
@@ -8162,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>178</v>
       </c>
@@ -8173,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>179</v>
       </c>
@@ -8184,7 +8198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>180</v>
       </c>
@@ -8195,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>181</v>
       </c>
@@ -8206,7 +8220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>182</v>
       </c>
@@ -8217,7 +8231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>183</v>
       </c>
@@ -8228,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>184</v>
       </c>
@@ -8239,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>185</v>
       </c>
@@ -8250,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>186</v>
       </c>
@@ -8261,7 +8275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>187</v>
       </c>
@@ -8272,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>188</v>
       </c>
@@ -8283,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>189</v>
       </c>
@@ -8294,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>190</v>
       </c>
@@ -8305,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>191</v>
       </c>
@@ -8316,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>192</v>
       </c>
@@ -8327,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>193</v>
       </c>
@@ -8338,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>194</v>
       </c>
@@ -8349,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>195</v>
       </c>
@@ -8360,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>196</v>
       </c>
@@ -8371,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>197</v>
       </c>
@@ -8382,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>198</v>
       </c>
@@ -8393,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>199</v>
       </c>
@@ -8404,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>200</v>
       </c>
@@ -8415,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>201</v>
       </c>
@@ -8426,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>202</v>
       </c>
@@ -8437,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>203</v>
       </c>
@@ -8448,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>204</v>
       </c>
@@ -8459,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>205</v>
       </c>
@@ -8470,7 +8484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>206</v>
       </c>
@@ -8481,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>207</v>
       </c>
@@ -8492,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>208</v>
       </c>
@@ -8503,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>209</v>
       </c>
@@ -8514,7 +8528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>210</v>
       </c>
@@ -8525,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>211</v>
       </c>
@@ -8536,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>212</v>
       </c>
@@ -8547,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>213</v>
       </c>
@@ -8558,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>214</v>
       </c>
@@ -8569,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>215</v>
       </c>
@@ -8653,18 +8667,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="38" style="9" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="1"/>
+    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>439</v>
       </c>
@@ -8672,7 +8686,7 @@
         <v>540</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>415</v>
@@ -8684,7 +8698,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -8704,502 +8718,502 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>539</v>
       </c>
@@ -9234,12 +9248,12 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="18.90625" style="1"/>
+    <col min="1" max="16384" width="18.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>543</v>
       </c>
@@ -9262,7 +9276,7 @@
         <v>415</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>647</v>
@@ -9286,22 +9300,22 @@
         <v>695</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="U1" s="10" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -9351,70 +9365,70 @@
         <v>691</v>
       </c>
       <c r="Q2" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="S2" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>788</v>
       </c>
-      <c r="S2" s="23" t="s">
-        <v>789</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>790</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>351</v>
       </c>
@@ -9485,12 +9499,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="28.08984375" style="1"/>
+    <col min="1" max="16384" width="28.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>556</v>
       </c>
@@ -9513,7 +9527,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -9536,12 +9550,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>365</v>
       </c>
@@ -9576,27 +9590,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.36328125" style="1"/>
+    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503AD2C-E82D-45F1-B0C5-28FCD16E1F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C1C74B-48DA-4FD8-88E8-CC5D1CE7E0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="813">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -3419,72 +3419,6 @@
   </si>
   <si>
     <t>DOCUMENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t># Sample の表現型とサンプル属性を 名前:値; 名前:値; … の組み合わせで記載します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>解析に必須な情報は必ず記載してください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-例: age:37; smoke:yes; collection_date:2000-01-01</t>
-    </r>
-    <rPh sb="10" eb="13">
-      <t>ヒョウゲンケイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>レイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4270,12 +4204,62 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Sample 追加属性の記載形式を変更</t>
+    <rPh sb="7" eb="11">
+      <t>ツイカゾクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キサイケイシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># L列以降に属性を追加して Sample を十分に記載してください。
+属性名 (例 age) を二行目に、対応する値 (例 40) を三行目以降に記載します。</t>
+    <rPh sb="7" eb="9">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample の記入例 (ウェブリンク)</t>
+    <rPh sb="8" eb="11">
+      <t>キニュウレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4330,6 +4314,22 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4429,7 +4429,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4466,9 +4466,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -4488,8 +4496,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFBFE4FF"/>
       <color rgb="FF84919E"/>
-      <color rgb="FFBFE4FF"/>
       <color rgb="FFFFCA80"/>
       <color rgb="FFFDE9D9"/>
       <color rgb="FFDAEEF3"/>
@@ -4796,7 +4804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -4809,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
@@ -4819,7 +4827,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
@@ -4829,12 +4837,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
@@ -4842,7 +4850,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
@@ -4857,7 +4865,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
@@ -4865,12 +4873,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -4921,7 +4929,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
-        <v>44918</v>
+        <v>45794</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
@@ -4987,7 +4995,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B37" s="7">
         <v>43227</v>
@@ -4995,7 +5003,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B38" s="7">
         <v>44103</v>
@@ -5003,7 +5011,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B39" s="7">
         <v>44622</v>
@@ -5011,7 +5019,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B40" s="7">
         <v>44678</v>
@@ -5019,7 +5027,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B41" s="7">
         <v>44918</v>
@@ -5027,10 +5035,18 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B42" s="7">
         <v>45321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45794</v>
       </c>
     </row>
   </sheetData>
@@ -5053,9 +5069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5120,10 +5134,10 @@
         <v>633</v>
       </c>
       <c r="O1" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>790</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5152,7 +5166,7 @@
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5170,7 +5184,7 @@
         <v>607</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5208,7 +5222,7 @@
         <v>699</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>570</v>
@@ -5220,7 +5234,7 @@
         <v>608</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5249,7 +5263,7 @@
         <v>700</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>571</v>
@@ -5432,7 +5446,7 @@
         <v>673</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>705</v>
@@ -5461,7 +5475,7 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
@@ -5484,13 +5498,13 @@
         <v>650</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>706</v>
@@ -5513,7 +5527,7 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
@@ -5577,10 +5591,10 @@
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>558</v>
@@ -5626,7 +5640,7 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>622</v>
@@ -5643,7 +5657,7 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>623</v>
@@ -5660,7 +5674,7 @@
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>624</v>
@@ -5668,7 +5682,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5677,7 +5691,7 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>625</v>
@@ -5685,7 +5699,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5694,7 +5708,7 @@
         <v>674</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>626</v>
@@ -5770,7 +5784,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5779,7 +5793,7 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>631</v>
@@ -5787,7 +5801,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5796,7 +5810,7 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>632</v>
@@ -5804,7 +5818,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5813,12 +5827,12 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -5832,7 +5846,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -5846,7 +5860,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -5860,10 +5874,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>388</v>
@@ -5988,7 +6002,7 @@
         <v>660</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
@@ -5996,7 +6010,7 @@
         <v>661</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
@@ -6004,7 +6018,7 @@
         <v>662</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
@@ -6033,7 +6047,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>716</v>
@@ -6064,17 +6078,17 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
@@ -6140,12 +6154,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -6153,12 +6167,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -6257,7 +6271,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
@@ -6408,18 +6422,18 @@
     </row>
     <row r="21" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -6427,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -6455,21 +6469,21 @@
     </row>
     <row r="30" spans="1:3" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -6646,7 +6660,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:AD102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6657,10 +6671,13 @@
     <col min="3" max="4" width="24.88671875" style="8"/>
     <col min="5" max="6" width="24.88671875" style="1"/>
     <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.88671875" style="1"/>
+    <col min="8" max="11" width="24.88671875" style="1"/>
+    <col min="12" max="12" width="74.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" ht="34.799999999999997" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>434</v>
       </c>
@@ -6694,11 +6711,14 @@
       <c r="K1" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="L1" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -6732,102 +6752,126 @@
       <c r="K2" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="L2" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -7354,6 +7398,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="M1" r:id="rId1" location="gid=1631495971" display="Sample の記入例" xr:uid="{6A4A00BD-F6A0-4700-A260-491780AFB676}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <extLst>
@@ -7432,14 +7479,14 @@
       <c r="K1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
@@ -8686,7 +8733,7 @@
         <v>540</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>415</v>
@@ -9244,9 +9291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -9276,7 +9321,7 @@
         <v>415</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>647</v>
@@ -9300,19 +9345,19 @@
         <v>695</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="U1" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -9365,19 +9410,19 @@
         <v>691</v>
       </c>
       <c r="Q2" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>785</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>788</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -9385,7 +9430,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -9495,9 +9540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -9586,9 +9629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -9599,18 +9640,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>741</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C1C74B-48DA-4FD8-88E8-CC5D1CE7E0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA56B159-98EE-4B93-B050-1DEB65E02D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="829">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -1165,9 +1165,6 @@
   <si>
     <t>Dataset-1</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dataset-2</t>
   </si>
   <si>
     <t>Analysis_ref</t>
@@ -1717,25 +1714,6 @@
       <t>ガイヨウ</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># 個人に対する匿名化された ID を記載します。</t>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トクメイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
       <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2332,22 +2310,6 @@
     <t xml:space="preserve">Genomic variant calling </t>
   </si>
   <si>
-    <t># Sample の内容を簡潔に表すユニークなタイトルを入力します。</t>
-    <rPh sb="10" eb="12">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンケツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Experiment の内容を簡潔に表すユニークなタイトルを入力します。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2482,18 +2444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sample ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subject ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gender</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Attributes</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2908,20 +2858,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Histological Type</t>
-  </si>
-  <si>
-    <t>Is Tumor</t>
-  </si>
-  <si>
-    <t>Population</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tissue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># サンプルが取得された組織。例 breast</t>
     <rPh sb="7" eb="9">
       <t>シュトク</t>
@@ -2968,10 +2904,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Affection Status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># 対象者の case/control ステータス。例 control、case、cancer</t>
     <rPh sb="2" eb="4">
       <t>タイショウ</t>
@@ -3018,19 +2950,6 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># 個人の性別 (male, female) を記載します。</t>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3822,10 +3741,6 @@
     <rPh sb="41" eb="43">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hold/Release</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4063,67 +3978,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t># "Hold" か "Release immediately" を選択。"Hold" の場合、データの共有が可能になったら JGA/AGD チームに連絡します。公開予定日を指定することはできません。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データは submission (JSUB/ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
-    </r>
-    <rPh sb="34" eb="36">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="83" eb="86">
-      <t>ヨテイビ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># 登録日</t>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
@@ -4218,32 +4072,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># L列以降に属性を追加して Sample を十分に記載してください。
-属性名 (例 age) を二行目に、対応する値 (例 40) を三行目以降に記載します。</t>
-    <rPh sb="7" eb="9">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジュウブン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sample の記入例 (ウェブリンク)</t>
     <rPh sb="8" eb="11">
       <t>キニュウレイ</t>
@@ -4252,6 +4080,263 @@
   </si>
   <si>
     <t>age</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># データ公開は NBDC ヒトデータ事務局へご依頼ください (問い合わせフォーム: https://humandbs.dbcls.jp/contact-us, メール: humandbs@dbcls.jp)</t>
+    <rPh sb="5" eb="7">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジムキョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># NBDC ヒトデータベースで対応する hum 番号専用サイトが公開された後、JGA データは公開されます (https://humandbs.dbcls.jp/data-use/all-researches)</t>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># データは submission (JSUB/ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    <rPh sb="30" eb="32">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NBDC ヒトデータベースで対応する hum 番号専用サイトが公開された後、JGA データは公開されます (https://humandbs.dbcls.jp/data-use/all-researches)</t>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample 属性を追加</t>
+    <rPh sb="7" eb="9">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Sample の内容を簡潔に表すユニークなタイトル</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 個人に対する匿名化された ID</t>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 個人の性別 (male, female)</t>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 個人の年齢</t>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 居住地</t>
+    <rPh sb="2" eb="5">
+      <t>キョジュウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 出生地</t>
+    <rPh sb="2" eb="5">
+      <t>シュッセイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 疾患名</t>
+    <rPh sb="2" eb="5">
+      <t>シッカンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 疾病コード (ICD-10)</t>
+    <rPh sb="2" eb="4">
+      <t>シッペイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># サンプル採取日</t>
+    <rPh sb="6" eb="9">
+      <t>サイシュビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># この列 (R列) 以降に属性を追加して Sample を十分に記載してください。
+属性名 (例 smoker) を二行目に、対応する値 (例 yes) を三行目以降に記載します。</t>
+    <rPh sb="8" eb="9">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>residence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birth_location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disease</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICD10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collection_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>affection_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tissue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>population</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>histological_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_tumor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add additional phenotypes and sample attributes as much as possible from here to right. Overwrite this by an added first name.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4259,7 +4344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4327,6 +4412,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4429,7 +4522,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4466,17 +4559,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -4804,7 +4897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -4816,178 +4909,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>795</v>
+      <c r="A1" s="29" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A6" s="14" t="s">
-        <v>738</v>
+      <c r="A6" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
+      <c r="A7" s="14" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>804</v>
-      </c>
+      <c r="A8" s="14"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="15"/>
+      <c r="B19" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="16"/>
+      <c r="B20" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="16"/>
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="17"/>
+      <c r="B21" s="1" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="7">
-        <v>45794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
-        <v>579</v>
+      <c r="A27" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="7">
+        <v>45457</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B30" s="7">
-        <v>42285</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="B31" s="7">
-        <v>42429</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B32" s="7">
-        <v>42430</v>
+        <v>42429</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="B33" s="7">
-        <v>42486</v>
+        <v>42430</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B34" s="7">
-        <v>42760</v>
+        <v>42486</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="B35" s="7">
-        <v>42935</v>
+        <v>42760</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>720</v>
+        <v>674</v>
       </c>
       <c r="B36" s="7">
         <v>42935</v>
@@ -4995,65 +5085,81 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="B37" s="7">
-        <v>43227</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="B38" s="7">
-        <v>44103</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="B39" s="7">
-        <v>44622</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>779</v>
+        <v>735</v>
       </c>
       <c r="B40" s="7">
-        <v>44678</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="B41" s="7">
-        <v>44918</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="B42" s="7">
-        <v>45321</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="B43" s="7">
-        <v>45794</v>
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45457</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" display="https://www.ddbj.nig.ac.jp/jga/index.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A16" r:id="rId2" display="https://www.ddbj.nig.ac.jp/jga/index.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
@@ -5119,25 +5225,25 @@
         <v>361</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>334</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>334</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5160,13 +5266,13 @@
         <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5178,13 +5284,13 @@
         <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5210,7 +5316,7 @@
         <v>363</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>335</v>
@@ -5219,22 +5325,22 @@
         <v>355</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5260,16 +5366,16 @@
         <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
@@ -5289,22 +5395,22 @@
         <v>303</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
@@ -5321,7 +5427,7 @@
         <v>282</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>358</v>
@@ -5330,13 +5436,13 @@
         <v>327</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
@@ -5359,16 +5465,16 @@
         <v>359</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
@@ -5391,16 +5497,16 @@
         <v>360</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
@@ -5417,19 +5523,19 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>339</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
@@ -5443,22 +5549,22 @@
         <v>286</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
@@ -5475,19 +5581,19 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
@@ -5495,28 +5601,28 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
@@ -5527,25 +5633,25 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>340</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
@@ -5556,13 +5662,13 @@
         <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5571,10 +5677,10 @@
         <v>341</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
@@ -5582,25 +5688,25 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
@@ -5608,22 +5714,22 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>312</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -5640,15 +5746,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5657,10 +5763,10 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
@@ -5668,21 +5774,21 @@
         <v>257</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5691,49 +5797,49 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5742,15 +5848,15 @@
         <v>317</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5759,15 +5865,15 @@
         <v>318</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5776,15 +5882,15 @@
         <v>319</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5793,15 +5899,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5810,15 +5916,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5827,26 +5933,26 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -5855,12 +5961,12 @@
         <v>323</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -5869,18 +5975,18 @@
         <v>324</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
@@ -5891,7 +5997,7 @@
         <v>325</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
@@ -5902,7 +6008,7 @@
         <v>326</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
@@ -5910,10 +6016,10 @@
         <v>260</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
@@ -5921,10 +6027,10 @@
         <v>261</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
@@ -5932,10 +6038,10 @@
         <v>262</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
@@ -5946,7 +6052,7 @@
         <v>277</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
@@ -5954,7 +6060,7 @@
         <v>264</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
@@ -5962,31 +6068,31 @@
         <v>265</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
@@ -5994,31 +6100,31 @@
         <v>266</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
@@ -6026,31 +6132,31 @@
         <v>267</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
@@ -6068,62 +6174,62 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -6152,27 +6258,30 @@
     <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="5"/>
-    </row>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="26" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="26" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>780</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -6180,7 +6289,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -6188,39 +6297,39 @@
         <v>13</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -6271,23 +6380,23 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
-        <v>43623</v>
+        <v>45457</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 B8:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Hold,Release immediately"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6319,7 +6428,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -6332,7 +6441,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -6363,7 +6472,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -6376,33 +6485,33 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
@@ -6422,18 +6531,18 @@
     </row>
     <row r="21" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -6441,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -6456,12 +6565,12 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
@@ -6469,21 +6578,21 @@
     </row>
     <row r="30" spans="1:3" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -6503,7 +6612,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
@@ -6514,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
@@ -6534,7 +6643,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
@@ -6548,7 +6657,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>6</v>
@@ -6571,7 +6680,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -6599,18 +6708,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="19" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -6664,58 +6773,71 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="9"/>
-    <col min="2" max="2" width="24.88671875" style="1"/>
-    <col min="3" max="4" width="24.88671875" style="8"/>
-    <col min="5" max="6" width="24.88671875" style="1"/>
-    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="24.88671875" style="1"/>
-    <col min="12" max="12" width="74.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="24.88671875" style="1"/>
+    <col min="1" max="1" width="26" style="9"/>
+    <col min="2" max="2" width="26" style="1"/>
+    <col min="3" max="4" width="26" style="8"/>
+    <col min="5" max="16384" width="26" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="34.799999999999997" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>433</v>
+        <v>803</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>645</v>
+        <v>431</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>560</v>
+        <v>804</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>432</v>
+        <v>805</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>643</v>
+        <v>806</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>638</v>
+        <v>807</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>641</v>
+        <v>808</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>639</v>
+        <v>809</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="L1" s="24" t="s">
         <v>810</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="1" t="s">
         <v>811</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
@@ -6723,45 +6845,57 @@
         <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>575</v>
+        <v>813</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>576</v>
+        <v>814</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>577</v>
+        <v>815</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1</v>
+        <v>816</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>353</v>
+        <v>817</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>642</v>
+        <v>797</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>637</v>
+        <v>818</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>634</v>
+        <v>820</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+        <v>821</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="S2" s="25"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -6780,8 +6914,8 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
@@ -6789,8 +6923,8 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
@@ -6798,8 +6932,8 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
@@ -7399,7 +7533,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="M1" r:id="rId1" location="gid=1631495971" display="Sample の記入例" xr:uid="{6A4A00BD-F6A0-4700-A260-491780AFB676}"/>
+    <hyperlink ref="S1" r:id="rId1" location="gid=1631495971" display="Sample の記入例" xr:uid="{DC3A9810-C86A-409D-BAFE-4E65DF9AA85A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
@@ -7447,46 +7581,46 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="L1" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
@@ -7499,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>217</v>
@@ -7520,25 +7654,25 @@
         <v>222</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>414</v>
-      </c>
       <c r="Q2" s="18" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -7546,7 +7680,7 @@
         <v>116</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -7557,7 +7691,7 @@
         <v>117</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -7568,7 +7702,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -7579,7 +7713,7 @@
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -7590,7 +7724,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -7601,7 +7735,7 @@
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -7612,7 +7746,7 @@
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -7623,7 +7757,7 @@
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -7634,7 +7768,7 @@
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -7645,7 +7779,7 @@
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -7656,7 +7790,7 @@
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -7667,7 +7801,7 @@
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -7678,7 +7812,7 @@
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -7689,7 +7823,7 @@
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -7700,7 +7834,7 @@
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -7711,7 +7845,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -7722,7 +7856,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -7733,7 +7867,7 @@
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
@@ -7744,7 +7878,7 @@
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
@@ -7755,7 +7889,7 @@
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
@@ -7766,7 +7900,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -7777,7 +7911,7 @@
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -7788,7 +7922,7 @@
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
@@ -7799,7 +7933,7 @@
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -7810,7 +7944,7 @@
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -7821,7 +7955,7 @@
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -7832,7 +7966,7 @@
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -7843,7 +7977,7 @@
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -7854,7 +7988,7 @@
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
@@ -7865,7 +7999,7 @@
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -7876,7 +8010,7 @@
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -7887,7 +8021,7 @@
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
@@ -7898,7 +8032,7 @@
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
@@ -7909,7 +8043,7 @@
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
@@ -7920,7 +8054,7 @@
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
@@ -7931,7 +8065,7 @@
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
@@ -7942,7 +8076,7 @@
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
@@ -7953,7 +8087,7 @@
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
@@ -7964,7 +8098,7 @@
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -7975,7 +8109,7 @@
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
@@ -7986,7 +8120,7 @@
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
@@ -7997,7 +8131,7 @@
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
@@ -8008,7 +8142,7 @@
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
@@ -8019,7 +8153,7 @@
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
@@ -8030,7 +8164,7 @@
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
@@ -8041,7 +8175,7 @@
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
@@ -8052,7 +8186,7 @@
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
@@ -8063,7 +8197,7 @@
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
@@ -8074,7 +8208,7 @@
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
@@ -8085,7 +8219,7 @@
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
@@ -8096,7 +8230,7 @@
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
@@ -8107,7 +8241,7 @@
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
@@ -8118,7 +8252,7 @@
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
@@ -8129,7 +8263,7 @@
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
@@ -8140,7 +8274,7 @@
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
@@ -8151,7 +8285,7 @@
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
@@ -8162,7 +8296,7 @@
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
@@ -8173,7 +8307,7 @@
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
@@ -8184,7 +8318,7 @@
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
@@ -8195,7 +8329,7 @@
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
@@ -8206,7 +8340,7 @@
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
@@ -8217,7 +8351,7 @@
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
@@ -8228,7 +8362,7 @@
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -8239,7 +8373,7 @@
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
@@ -8250,7 +8384,7 @@
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
@@ -8261,7 +8395,7 @@
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
@@ -8272,7 +8406,7 @@
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
@@ -8283,7 +8417,7 @@
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
@@ -8294,7 +8428,7 @@
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
@@ -8305,7 +8439,7 @@
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
@@ -8316,7 +8450,7 @@
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
@@ -8327,7 +8461,7 @@
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
@@ -8338,7 +8472,7 @@
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
@@ -8349,7 +8483,7 @@
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
@@ -8360,7 +8494,7 @@
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
@@ -8371,7 +8505,7 @@
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
@@ -8382,7 +8516,7 @@
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
@@ -8393,7 +8527,7 @@
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
@@ -8404,7 +8538,7 @@
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
@@ -8415,7 +8549,7 @@
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
@@ -8426,7 +8560,7 @@
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
@@ -8437,7 +8571,7 @@
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
@@ -8448,7 +8582,7 @@
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
@@ -8459,7 +8593,7 @@
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
@@ -8470,7 +8604,7 @@
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
@@ -8481,7 +8615,7 @@
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
@@ -8492,7 +8626,7 @@
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
@@ -8503,7 +8637,7 @@
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
@@ -8514,7 +8648,7 @@
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
@@ -8525,7 +8659,7 @@
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
@@ -8536,7 +8670,7 @@
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
@@ -8547,7 +8681,7 @@
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
@@ -8558,7 +8692,7 @@
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
@@ -8569,7 +8703,7 @@
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
@@ -8580,7 +8714,7 @@
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
@@ -8591,7 +8725,7 @@
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
@@ -8602,7 +8736,7 @@
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
@@ -8613,7 +8747,7 @@
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
@@ -8624,7 +8758,7 @@
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
@@ -8635,7 +8769,7 @@
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -8714,35 +8848,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="38" style="9" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="36.88671875" style="9"/>
+    <col min="2" max="16384" width="36.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -8753,516 +8882,516 @@
         <v>331</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -9300,64 +9429,64 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>781</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -9365,13 +9494,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>352</v>
@@ -9389,40 +9518,40 @@
         <v>333</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -9430,7 +9559,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -9538,7 +9667,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9549,25 +9678,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -9575,13 +9704,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>366</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>367</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>352</v>
@@ -9590,17 +9719,12 @@
         <v>353</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -9640,18 +9764,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA56B159-98EE-4B93-B050-1DEB65E02D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AE7F8B-A5E1-4026-8F48-252CC1C68326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
-    <sheet name="Submission" sheetId="1" r:id="rId2"/>
-    <sheet name="Study" sheetId="2" r:id="rId3"/>
-    <sheet name="Sample" sheetId="3" r:id="rId4"/>
-    <sheet name="Experiment" sheetId="4" r:id="rId5"/>
-    <sheet name="Data" sheetId="5" r:id="rId6"/>
-    <sheet name="Analysis" sheetId="7" r:id="rId7"/>
-    <sheet name="Dataset" sheetId="9" r:id="rId8"/>
-    <sheet name="File" sheetId="13" r:id="rId9"/>
+    <sheet name="JGA_Submission" sheetId="1" r:id="rId2"/>
+    <sheet name="JGA_Study" sheetId="2" r:id="rId3"/>
+    <sheet name="JGA_Sample" sheetId="3" r:id="rId4"/>
+    <sheet name="JGA_Experiment" sheetId="4" r:id="rId5"/>
+    <sheet name="JGA_Data" sheetId="5" r:id="rId6"/>
+    <sheet name="JGA_Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="JGA_Dataset" sheetId="9" r:id="rId8"/>
+    <sheet name="JGA_File" sheetId="13" r:id="rId9"/>
     <sheet name="Admin" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Analysis!$A$2:$P$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">JGA_Analysis!$A$2:$P$12</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="830">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -4337,6 +4337,16 @@
   </si>
   <si>
     <t>Add additional phenotypes and sample attributes as much as possible from here to right. Overwrite this by an added first name.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名に DB プレフィックスを付加</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4897,7 +4907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5027,7 +5037,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
-        <v>45457</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -5153,6 +5163,14 @@
       </c>
       <c r="B45" s="7">
         <v>45457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45478</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AE7F8B-A5E1-4026-8F48-252CC1C68326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BED24E-A3AB-4CE5-81CE-1030868A257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,73 +32,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="833">
   <si>
     <t>E-mail</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Study Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Abstract</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Pubmed ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Agency</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Grant ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Alias</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Case-Control</t>
   </si>
   <si>
     <t>Study Types</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>New Study Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Publications</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Grants</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Contacts</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Links</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sample-1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sample-2</t>
@@ -399,7 +399,7 @@
   </si>
   <si>
     <t>Experiment-1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Experiment-2</t>
@@ -700,29 +700,29 @@
   </si>
   <si>
     <t>Sample_ref</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Library Name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Library Source</t>
   </si>
   <si>
     <t>Library Source</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Library Selection</t>
   </si>
   <si>
     <t>Library Selection</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Library Construction Protocol</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Library Layout</t>
@@ -732,14 +732,14 @@
   </si>
   <si>
     <t>Sequencing Library Strategy</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Read Pair 2 Direction #PAIRED</t>
   </si>
   <si>
     <t>Sequencing Platform</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Case Set</t>
@@ -788,7 +788,7 @@
   </si>
   <si>
     <t>Study Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>454 GS</t>
@@ -1050,23 +1050,23 @@
   </si>
   <si>
     <t>Alias</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Experiment_ref</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>File Name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>File Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>File Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>bam</t>
@@ -1091,7 +1091,7 @@
   </si>
   <si>
     <t>Analysis-1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Analysis-2</t>
@@ -1122,15 +1122,15 @@
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Analysis Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>REFERENCE_ALIGNMENT</t>
@@ -1152,35 +1152,35 @@
   </si>
   <si>
     <t>Analysis Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>SINGLE</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PAIRED</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Dataset-1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Analysis_ref</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Policy_ref</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Dataset Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Dataset Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Amplicon sequencing</t>
@@ -1202,7 +1202,7 @@
   </si>
   <si>
     <t>Agency Abbreviation</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>bai</t>
@@ -1287,7 +1287,7 @@
     <rPh sb="11" eb="13">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>JGA へのデータ登録については、以下のウェブサイトをご覧ください。</t>
@@ -1300,7 +1300,7 @@
     <rPh sb="28" eb="29">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>必須項目</t>
@@ -1310,14 +1310,14 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>シートの説明</t>
     <rPh sb="4" eb="6">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>任意項目</t>
@@ -1327,7 +1327,7 @@
     <rPh sb="2" eb="4">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>編集不可項目</t>
@@ -1340,7 +1340,7 @@
     <rPh sb="4" eb="6">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>連番付きの行を増やし、入力項目を必要数作成します。</t>
@@ -1371,19 +1371,19 @@
     <rPh sb="19" eb="21">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Organization</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1 (Principal Investigator)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TEL (required for PI)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 選択肢から適切なものを選びます</t>
@@ -1396,30 +1396,30 @@
     <rPh sb="13" eb="14">
       <t>エラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># SINGLE か PAIRED を選択</t>
     <rPh sb="19" eb="21">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Insert Size #PAIRED ONLY</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Read Pair 1 Direction #PAIRED ONLY</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Read Pair 1 Start Base #PAIRED ONLY</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Read Pair 2 Direction #PAIRED ONLY</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 選択肢から選びます</t>
@@ -1429,37 +1429,37 @@
     <rPh sb="7" eb="8">
       <t>エラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Data set のタイトル</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Data set の説明</t>
     <rPh sb="12" eb="14">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Dataset type を選択します</t>
     <rPh sb="16" eb="18">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Submission Date</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Forward</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Reverse</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 名前に "_ref" が含まれている項目はオブジェクト同士を関係づけるためのものです。参照するオブジェクトの alias を記入します。</t>
@@ -1484,7 +1484,7 @@
     <rPh sb="64" eb="66">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>データ提供開始後、Study と Data set の内容は登録の概要として一般に公開されます。</t>
@@ -1512,7 +1512,7 @@
     <rPh sb="41" eb="43">
       <t>コウカイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 登録者の名前、連絡先 (所属する組織から発行されたメールアドレス)、所属する組織、Center name を列挙します。必ず NBDC へのデータ提供申請時の責任者を含めます。</t>
@@ -1561,7 +1561,7 @@
     <rPh sb="85" eb="86">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Study の一覧表示や検索に使われるタイトル。</t>
@@ -1577,7 +1577,7 @@
     <rPh sb="17" eb="18">
       <t>ツカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Study の特徴を表す語句で、複数記載できます。選択肢にない語句を記載したい場合、Other を選択し New Study Type に入力します。</t>
@@ -1614,7 +1614,7 @@
     <rPh sb="71" eb="73">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 登録するデータを公表する論文に記載する要約のように Study のゴールや目的を詳細に記載します。第三者が研究概要を理解できる程度の詳細さが必要です。</t>
@@ -1666,7 +1666,7 @@
     <rPh sb="72" eb="74">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Study に直接関連する文献情報。</t>
@@ -1682,11 +1682,11 @@
     <rPh sb="17" eb="19">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Free form citation # If a Pubmed ID is not assigned.</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 研究費情報。</t>
@@ -1696,7 +1696,7 @@
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Study に関連するリンク。研究プロジェクトのホームページの URL など。</t>
@@ -1706,7 +1706,7 @@
     <rPh sb="17" eb="19">
       <t>ケンキュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Sample の概要を記載します。</t>
@@ -1716,7 +1716,7 @@
     <rPh sb="13" eb="15">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Alias (オブジェクトに割り振られる連番) で他のオブジェクトから参照します。1 行が 1 Sample に対応します。</t>
@@ -1741,7 +1741,7 @@
     <rPh sb="58" eb="60">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Alias (オブジェクトに割り振られる連番) で他のオブジェクトから参照します。1 行が 1 Experiment に対応します。</t>
@@ -1766,7 +1766,7 @@
     <rPh sb="62" eb="64">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Experiment で使用された Sample の alias (例 Sample-1)</t>
@@ -1776,7 +1776,7 @@
     <rPh sb="36" eb="37">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># ライブラリーの構築方法を記載します。</t>
@@ -1789,14 +1789,14 @@
     <rPh sb="14" eb="16">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># ライブラリーの名前</t>
     <rPh sb="9" eb="11">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Alias (オブジェクトに割り振られる連番) で他のオブジェクトから参照します。1 行が 1 Data に対応します。</t>
@@ -1821,11 +1821,11 @@
     <rPh sb="56" eb="58">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Data-1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Data-2</t>
@@ -2132,11 +2132,11 @@
     <rPh sb="32" eb="33">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Study_ref</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Analysis が属する Study の alias (Study-1 に固定)</t>
@@ -2146,7 +2146,7 @@
     <rPh sb="40" eb="42">
       <t>コテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Alias (オブジェクトに割り振られる連番) で他のオブジェクトから参照します。1 行が 1 Analysis に対応します。</t>
@@ -2171,7 +2171,7 @@
     <rPh sb="60" eb="62">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Analysis が使った Sample。必要なだけの Sample alias をカンマで区切って入力します (例 Sample-1, Sample-2)</t>
@@ -2190,7 +2190,7 @@
     <rPh sb="59" eb="60">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Analysis が使った Data。必要なだけの Data オブジェクトの alias をカンマで区切って入力します (例 Data-1, Data-2)</t>
@@ -2209,30 +2209,30 @@
     <rPh sb="63" eb="64">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Data_ref</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Analysis のタイトル</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Analysis の概要</t>
     <rPh sb="12" eb="14">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Last name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>First name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Sequencing Library Strategy を選択肢から選びます。</t>
@@ -2242,19 +2242,19 @@
     <rPh sb="36" eb="37">
       <t>エラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Library Layout</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sequencing File Name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sequencing File Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>最終更新日</t>
@@ -2264,7 +2264,7 @@
     <rPh sb="2" eb="5">
       <t>コウシンビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2298,7 +2298,7 @@
     <rPh sb="57" eb="59">
       <t>タンイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Transcriptome profiling by high-throughput sequencing</t>
@@ -2311,7 +2311,7 @@
   </si>
   <si>
     <t># Experiment の内容を簡潔に表すユニークなタイトルを入力します。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2369,19 +2369,19 @@
     <rPh sb="92" eb="94">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Reference name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Reference accession.version</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Insert size standard deviation #PAIRED ONLY</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># bam の場合、リファレンス配列の名前 (GRCh37, hg19 etc) を記入します。</t>
@@ -2397,7 +2397,7 @@
     <rPh sb="42" eb="44">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># bam の場合、リファレンス配列のアクセッション番号.バージョン番号 (GCF_000001405.13 etc) を記入します。</t>
@@ -2413,39 +2413,39 @@
     <rPh sb="61" eb="63">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>image</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NIfTI</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Whole genome sequencing</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Exome sequencing</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Chromatin accessibility profiling by high-throughput sequencing</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Histone modification profiling by high-throughput sequencing</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Transcription factor binding profiling by high-throughput sequencing</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Attributes</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>変更履歴</t>
@@ -2455,38 +2455,38 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>全てのサンプルで Subject ID (匿名化された個人 ID) と Gender (性別) を必須に</t>
     <rPh sb="49" eb="51">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Read Pair 2 Start Base #PAIRED ONLY</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Hanako</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Mishima</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>example@example.ac.jp</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>0000-00-0000</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DNA Databank of Japan</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Study に関連するキーワード（疾患名や手法等）を名前と値のペアで記載します。検索性を向上させるためにもできるだけ記載してください。</t>
@@ -2523,15 +2523,15 @@
     <rPh sb="60" eb="62">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Study 属性記入欄を追加</t>
@@ -2547,11 +2547,11 @@
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Design Description</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 実験のデザインを記載します</t>
@@ -2561,14 +2561,14 @@
     <rPh sb="10" eb="12">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Experiment Design Description を追加</t>
     <rPh sb="31" eb="33">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2620,7 +2620,7 @@
     <rPh sb="119" eb="120">
       <t>カラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2654,7 +2654,7 @@
     <rPh sb="61" eb="62">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2691,30 +2691,30 @@
     <rPh sb="69" eb="70">
       <t>カラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Molecular Data Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Vendor</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Platform</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>例: Whole Genome Genotyping, Whole Genome Sequencing</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 登録するデータの種類と解析装置</t>
@@ -2730,25 +2730,25 @@
     <rPh sb="15" eb="17">
       <t>ソウチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>例: Mapping250K_Nsp, HiSeq 2000</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>例: Affymetrix, Illumina</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Inclusion/Exclusion Criteria</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># case と control 等の研究対象者の選定・除外基準</t>
@@ -2773,7 +2773,7 @@
     <rPh sb="30" eb="32">
       <t>キジュン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Bacterial Infections and Mycoses</t>
@@ -2855,7 +2855,7 @@
   </si>
   <si>
     <t>Disease Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># サンプルが取得された組織。例 breast</t>
@@ -2868,7 +2868,7 @@
     <rPh sb="15" eb="16">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 組織や細胞の type や subtype。例 melanoma, keratinocytes, embryonic stem cells</t>
@@ -2881,7 +2881,7 @@
     <rPh sb="24" eb="25">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># ガン。yes/no のどちらか、または、benign tumor のような文字列も記入できます。</t>
@@ -2891,7 +2891,7 @@
     <rPh sb="43" eb="45">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># サンプルの母集団。例 Japanese</t>
@@ -2901,7 +2901,7 @@
     <rPh sb="11" eb="12">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 対象者の case/control ステータス。例 control、case、cancer</t>
@@ -2914,7 +2914,7 @@
     <rPh sb="26" eb="27">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Study: データの種類、表現型や疾患に関する項目を追加。Sample: サンプル採取組織等の項目を追加。</t>
@@ -2951,11 +2951,11 @@
     <rPh sb="51" eb="53">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PacBio_HDF5</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># アライメントなどリファレンス配列を使った解析の場合、リファレンス配列の名前 (GRCh37, hg19 etc) を記入します。</t>
@@ -2980,7 +2980,7 @@
     <rPh sb="60" eb="62">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># アライメントなどリファレンス配列を使った解析の場合、リファレンス配列のアクセッション番号.バージョン番号 (GCF_000001405.13 etc) を記入します。</t>
@@ -2993,7 +2993,7 @@
     <rPh sb="79" eb="81">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>JGA xsd 1.0.8 に対応して選択肢を追加</t>
@@ -3006,7 +3006,7 @@
     <rPh sb="23" eb="25">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Illumina HiSeq 1500</t>
@@ -3130,7 +3130,7 @@
     <rPh sb="20" eb="22">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sample ID を必須化</t>
@@ -3140,48 +3140,48 @@
     <rPh sb="13" eb="14">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Array: Experiment Type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Array: Platform</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Array: Platform vendor</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Array: Platform description</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Array: Program</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># アレイの名前</t>
     <rPh sb="6" eb="8">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># アレイのベンダー名</t>
     <rPh sb="10" eb="11">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># アレイの説明</t>
     <rPh sb="6" eb="8">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># アレイデータ取得・解析に使用したプログラム名</t>
@@ -3197,7 +3197,7 @@
     <rPh sb="23" eb="24">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -3233,7 +3233,7 @@
     <rPh sb="37" eb="38">
       <t>エラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Sequencing Platform を選択肢から選びます。</t>
@@ -3243,11 +3243,11 @@
     <rPh sb="28" eb="29">
       <t>エラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Array Experiment type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ChIP-chip by SNP array</t>
@@ -3305,15 +3305,15 @@
   </si>
   <si>
     <t>Illumina MiniSeq</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Ion Torrent S5</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Ion Torrent S5 XL</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アレイデータを Analysis に移行、Analysis filetype 追加、Experiment Instrument model 追加</t>
@@ -3326,23 +3326,23 @@
     <rPh sb="70" eb="72">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MICROARRAY</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>IMAGE</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DOCUMENT</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Diseases/Traits/Exposures</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># ここの値が Primary として表示されます。</t>
@@ -3352,7 +3352,7 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>#研究対象疾患の ICD-10 分類</t>
@@ -3368,23 +3368,23 @@
     <rPh sb="16" eb="18">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Diseases/Traits/Exposures related to the study</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Diseases/Traits/Exposures related to the study</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Disease classification</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Disease classification(s)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Primary phenotype 変更、Disease type を ICD-10 分類に変更、Sample Affection Status を任意化</t>
@@ -3403,31 +3403,31 @@
     <rPh sb="76" eb="77">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.ddbj.nig.ac.jp/jga/index.html</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Study-1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>cDNA_randomPriming</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>cDNA_oligo_dT</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Illumina NovaSeq 6000</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Data/Analysis オブジェクトに登録するファイル名に空白を含めないでください。</t>
@@ -3443,7 +3443,7 @@
     <rPh sb="34" eb="35">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>新 JGA システムリリースに伴い File シートを追加</t>
@@ -3456,7 +3456,7 @@
     <rPh sb="27" eb="29">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>filename</t>
@@ -3496,7 +3496,7 @@
     <rPh sb="32" eb="34">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -3530,11 +3530,11 @@
     <rPh sb="38" eb="40">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NBDC Number (hum)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -3580,7 +3580,7 @@
     <rPh sb="85" eb="86">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -3617,34 +3617,34 @@
     <rPh sb="61" eb="62">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>JGA xsd 1.2.0 に対応</t>
     <rPh sb="15" eb="17">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ABUNDANCE_MEASUREMENT</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>METABOLOMICS</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PROTEOMICS</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BIOCHEMICAL_ASSAY</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>OTHER</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BGISEQ-500</t>
@@ -3741,7 +3741,7 @@
     <rPh sb="41" eb="43">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 解析に使用した機種の名前（例 HumanOmniExpressExome-8 v1.0 or v1.2）</t>
@@ -3760,7 +3760,7 @@
     <rPh sb="15" eb="16">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 解析に使用したプログラムとバージョン（例 Eagle software v2.4.1, Minimac4 software v1.0.2）</t>
@@ -3773,14 +3773,14 @@
     <rPh sb="21" eb="22">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># imputation した場合は TRUE。</t>
     <rPh sb="15" eb="17">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Variation: Experiment Type</t>
@@ -3841,7 +3841,7 @@
     <rPh sb="101" eb="103">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Experiment Type</t>
@@ -3857,7 +3857,7 @@
   </si>
   <si>
     <t>Attributes</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -3893,14 +3893,14 @@
     <rPh sb="42" eb="44">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>JGA/AGD メタデータ登録シート</t>
     <rPh sb="13" eb="15">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>JGA/AGD へデータを登録するためには、データ提供を NBDC に申請し承認されている必要があります。</t>
@@ -3919,11 +3919,11 @@
     <rPh sb="45" eb="47">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>データは submission (JSUB/ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>AGD へのデータ登録については、以下のウェブサイトをご覧ください。</t>
@@ -3936,18 +3936,18 @@
     <rPh sb="28" eb="29">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.ddbj.nig.ac.jp/agd/index.html</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>AGD 統合</t>
     <rPh sb="4" eb="6">
       <t>トウゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># データ提供申請に対し NBDC から発行された Research ID (例: hum0004)。AGD の場合、agd0000 形式の ID (例: agd0001)</t>
@@ -3975,7 +3975,7 @@
     <rPh sb="75" eb="76">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 登録日</t>
@@ -3985,25 +3985,25 @@
     <rPh sb="4" eb="5">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># それぞれのエクセルシートが JGA/AGD メタデータオブジェクトに対応しています。</t>
     <rPh sb="36" eb="38">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ICD-10 code</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>リンク修正</t>
     <rPh sb="3" eb="5">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># ICD-10
@@ -4030,7 +4030,7 @@
     <rPh sb="64" eb="66">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>例: Cancer, Cardiovascular disease, Tobacco use disorder 等のキーワードを記入します
@@ -4056,7 +4056,7 @@
     <rPh sb="137" eb="139">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sample 追加属性の記載形式を変更</t>
@@ -4069,18 +4069,18 @@
     <rPh sb="17" eb="19">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sample の記入例 (ウェブリンク)</t>
     <rPh sb="8" eb="11">
       <t>キニュウレイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>age</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># データ公開は NBDC ヒトデータ事務局へご依頼ください (問い合わせフォーム: https://humandbs.dbcls.jp/contact-us, メール: humandbs@dbcls.jp)</t>
@@ -4099,7 +4099,7 @@
     <rPh sb="34" eb="35">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># NBDC ヒトデータベースで対応する hum 番号専用サイトが公開された後、JGA データは公開されます (https://humandbs.dbcls.jp/data-use/all-researches)</t>
@@ -4112,7 +4112,7 @@
     <rPh sb="27" eb="29">
       <t>センヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># データは submission (JSUB/ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
@@ -4137,7 +4137,7 @@
     <rPh sb="67" eb="68">
       <t>ワ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NBDC ヒトデータベースで対応する hum 番号専用サイトが公開された後、JGA データは公開されます (https://humandbs.dbcls.jp/data-use/all-researches)</t>
@@ -4150,7 +4150,7 @@
     <rPh sb="25" eb="27">
       <t>センヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Sample 属性を追加</t>
@@ -4160,7 +4160,7 @@
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># Sample の内容を簡潔に表すユニークなタイトル</t>
@@ -4173,7 +4173,7 @@
     <rPh sb="16" eb="17">
       <t>アラワ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 個人に対する匿名化された ID</t>
@@ -4189,7 +4189,7 @@
     <rPh sb="10" eb="11">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 個人の性別 (male, female)</t>
@@ -4199,7 +4199,7 @@
     <rPh sb="5" eb="7">
       <t>セイベツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 個人の年齢</t>
@@ -4209,42 +4209,42 @@
     <rPh sb="5" eb="7">
       <t>ネンレイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 居住地</t>
     <rPh sb="2" eb="5">
       <t>キョジュウチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 出生地</t>
     <rPh sb="2" eb="5">
       <t>シュッセイチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 疾患名</t>
     <rPh sb="2" eb="5">
       <t>シッカンメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># 疾病コード (ICD-10)</t>
     <rPh sb="2" eb="4">
       <t>シッペイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># サンプル採取日</t>
     <rPh sb="6" eb="9">
       <t>サイシュビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t># この列 (R列) 以降に属性を追加して Sample を十分に記載してください。
@@ -4273,71 +4273,71 @@
     <rPh sb="71" eb="72">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>sample ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>subject ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>sex</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>residence</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>birth_location</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>disease</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ICD10</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>collection_date</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>affection_status</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>tissue</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>population</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>histological_type</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>is_tumor</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Add additional phenotypes and sample attributes as much as possible from here to right. Overwrite this by an added first name.</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>シート名に DB プレフィックスを付加</t>
@@ -4347,19 +4347,37 @@
     <rPh sb="17" eb="19">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Library Source SINGLE CELL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GENOMIC SINGLE CELL</t>
+  </si>
+  <si>
+    <t>TRANSCRIPTOMIC SINGLE CELL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4518,72 +4536,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="12" xr:uid="{ADBAA5D3-048E-45B2-931A-67F175D4AE41}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -4907,7 +4929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5037,7 +5059,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
-        <v>45478</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -5173,8 +5195,16 @@
         <v>45478</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B47" s="7">
+        <v>45588</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A16" r:id="rId2" display="https://www.ddbj.nig.ac.jp/jga/index.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -5322,7 +5352,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>831</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>279</v>
@@ -5369,7 +5399,7 @@
         <v>246</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>280</v>
@@ -5404,7 +5434,7 @@
         <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>832</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>281</v>
@@ -5439,7 +5469,7 @@
         <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>282</v>
@@ -5471,7 +5501,7 @@
         <v>249</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>283</v>
@@ -5503,7 +5533,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>284</v>
@@ -5534,6 +5564,9 @@
       <c r="B9" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>285</v>
       </c>
@@ -5563,6 +5596,9 @@
       <c r="B10" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>286</v>
       </c>
@@ -6251,7 +6287,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6412,7 +6448,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Hold,Release immediately"</formula1>
@@ -6756,7 +6792,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Case-Control,Case Set,Control Set,Tumor vs. Matched-Normal,Cohort,Longitudinal,Population,Family,Parent-Offspring Trios,Twin,Clinical Trial,Whole Genome Sequencing,Exome Sequencing,Transcriptome Sequencing,GWAS,Other"</formula1>
@@ -7549,7 +7585,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="S1" r:id="rId1" location="gid=1631495971" display="Sample の記入例" xr:uid="{DC3A9810-C86A-409D-BAFE-4E65DF9AA85A}"/>
   </hyperlinks>
@@ -8797,7 +8833,7 @@
   <mergeCells count="1">
     <mergeCell ref="L1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <extLst>
@@ -8805,7 +8841,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>Admin!$C$2:$C$8</xm:f>
+            <xm:f>Admin!$C$2:$C$10</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F102</xm:sqref>
         </x14:dataValidation>
@@ -9413,7 +9449,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -9626,7 +9662,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -9746,7 +9782,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -9797,7 +9833,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BED24E-A3AB-4CE5-81CE-1030868A257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF292E-D431-41CB-9973-EE5E60DDD1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22968" yWindow="12" windowWidth="24540" windowHeight="13440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="851">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="2"/>
@@ -3304,18 +3304,6 @@
     <t>Analyze</t>
   </si>
   <si>
-    <t>Illumina MiniSeq</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ion Torrent S5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Ion Torrent S5 XL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アレイデータを Analysis に移行、Analysis filetype 追加、Experiment Instrument model 追加</t>
     <rPh sb="18" eb="20">
       <t>イコウ</t>
@@ -3419,14 +3407,6 @@
   </si>
   <si>
     <t>cDNA_oligo_dT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Illumina iSeq 100</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4358,6 +4338,80 @@
   </si>
   <si>
     <t>TRANSCRIPTOMIC SINGLE CELL</t>
+  </si>
+  <si>
+    <t>JGA xsd 1.3.0 に対応</t>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025/xx/yy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>Illumina MiniSeq</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina iSeq 100</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 XL</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
   </si>
 </sst>
 </file>
@@ -4929,9 +4983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:B48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4942,7 +4998,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
@@ -4952,7 +5008,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
@@ -4962,17 +5018,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
@@ -4980,7 +5036,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.5">
@@ -4995,7 +5051,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
@@ -5003,12 +5059,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -5058,8 +5114,8 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="7">
-        <v>45588</v>
+      <c r="A28" s="7" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -5117,7 +5173,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B37" s="7">
         <v>42935</v>
@@ -5125,7 +5181,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B38" s="7">
         <v>43227</v>
@@ -5133,7 +5189,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B39" s="7">
         <v>44103</v>
@@ -5141,7 +5197,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B40" s="7">
         <v>44622</v>
@@ -5149,7 +5205,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B41" s="7">
         <v>44678</v>
@@ -5157,7 +5213,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B42" s="7">
         <v>44918</v>
@@ -5165,7 +5221,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B43" s="7">
         <v>45321</v>
@@ -5173,7 +5229,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B44" s="7">
         <v>45429</v>
@@ -5181,7 +5237,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B45" s="7">
         <v>45457</v>
@@ -5189,7 +5245,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B46" s="7">
         <v>45478</v>
@@ -5197,10 +5253,18 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B47" s="7">
         <v>45588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -5221,9 +5285,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5288,10 +5354,10 @@
         <v>627</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5299,7 +5365,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>641</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>271</v>
@@ -5320,7 +5386,7 @@
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5338,7 +5404,7 @@
         <v>601</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5349,10 +5415,10 @@
         <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>642</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>279</v>
@@ -5376,7 +5442,7 @@
         <v>687</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>567</v>
@@ -5388,7 +5454,7 @@
         <v>602</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5396,7 +5462,7 @@
         <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>272</v>
@@ -5417,7 +5483,7 @@
         <v>688</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>568</v>
@@ -5431,10 +5497,10 @@
         <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>281</v>
@@ -5466,7 +5532,7 @@
         <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>273</v>
@@ -5498,7 +5564,7 @@
         <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>274</v>
@@ -5530,7 +5596,7 @@
         <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>275</v>
@@ -5562,7 +5628,7 @@
         <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>638</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>276</v>
@@ -5574,7 +5640,7 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>692</v>
@@ -5594,7 +5660,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>277</v>
@@ -5606,7 +5672,7 @@
         <v>661</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>693</v>
@@ -5626,7 +5692,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>287</v>
@@ -5635,7 +5701,7 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
@@ -5655,16 +5721,16 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>694</v>
@@ -5684,16 +5750,16 @@
         <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>640</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>695</v>
@@ -5713,7 +5779,7 @@
         <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>830</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>667</v>
@@ -5722,7 +5788,7 @@
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5742,7 +5808,7 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>639</v>
+        <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>668</v>
@@ -5751,10 +5817,10 @@
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>556</v>
@@ -5768,7 +5834,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>640</v>
+        <v>831</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>669</v>
@@ -5791,7 +5857,7 @@
         <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>832</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>288</v>
@@ -5800,7 +5866,7 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>616</v>
@@ -5808,7 +5874,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>705</v>
+        <v>833</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5817,7 +5883,7 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>617</v>
@@ -5825,7 +5891,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>257</v>
+        <v>643</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>670</v>
@@ -5834,7 +5900,7 @@
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>618</v>
@@ -5842,7 +5908,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>724</v>
+        <v>644</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5851,7 +5917,7 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>619</v>
@@ -5859,7 +5925,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5868,7 +5934,7 @@
         <v>662</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>620</v>
@@ -5876,7 +5942,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>641</v>
+        <v>743</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>671</v>
@@ -5893,7 +5959,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>642</v>
+        <v>834</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5910,7 +5976,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>643</v>
+        <v>737</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5927,7 +5993,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>644</v>
+        <v>835</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5944,7 +6010,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5953,7 +6019,7 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>625</v>
@@ -5961,7 +6027,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5970,7 +6036,7 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>626</v>
@@ -5978,7 +6044,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5987,12 +6053,12 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -6006,7 +6072,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>743</v>
+        <v>836</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6020,7 +6086,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>744</v>
+        <v>267</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6034,10 +6100,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>746</v>
+        <v>651</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>387</v>
@@ -6045,7 +6111,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>652</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>325</v>
@@ -6056,7 +6122,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>259</v>
+        <v>740</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
@@ -6067,7 +6133,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>837</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>666</v>
@@ -6078,7 +6144,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>838</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>664</v>
@@ -6089,7 +6155,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>262</v>
+        <v>839</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>665</v>
@@ -6100,7 +6166,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>648</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>277</v>
@@ -6111,7 +6177,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>264</v>
+        <v>649</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>394</v>
@@ -6119,7 +6185,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>265</v>
+        <v>650</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>395</v>
@@ -6127,7 +6193,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>645</v>
+        <v>744</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>396</v>
@@ -6135,7 +6201,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>646</v>
+        <v>745</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>699</v>
@@ -6143,7 +6209,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>397</v>
@@ -6151,7 +6217,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>700</v>
@@ -6159,31 +6225,31 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>648</v>
+        <v>269</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>649</v>
+        <v>840</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>650</v>
+        <v>841</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>842</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>701</v>
@@ -6191,7 +6257,7 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>651</v>
+        <v>244</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>702</v>
@@ -6199,7 +6265,7 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>652</v>
+        <v>245</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>703</v>
@@ -6207,7 +6273,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>745</v>
+        <v>246</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>704</v>
@@ -6215,7 +6281,7 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>299</v>
@@ -6223,67 +6289,152 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>706</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>707</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>749</v>
+        <v>654</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>750</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>751</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>656</v>
+        <v>843</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>657</v>
+        <v>844</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>658</v>
+        <v>845</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>659</v>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B66" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B67" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B68" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B69" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B70" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B71" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B72" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B73" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B74" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B75" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B76" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B77" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B78" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B79" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B80" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B81" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B82" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6301,7 +6452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6314,28 +6465,28 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="26" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -6434,7 +6585,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
@@ -6585,18 +6736,18 @@
     </row>
     <row r="21" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -6604,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -6632,21 +6783,21 @@
     </row>
     <row r="30" spans="1:3" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -6843,34 +6994,34 @@
         <v>673</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>632</v>
@@ -6888,10 +7039,10 @@
         <v>630</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
@@ -6899,55 +7050,55 @@
         <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>797</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="R2" s="25" t="s">
         <v>823</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>824</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>825</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>827</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>828</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="19"/>
@@ -8877,7 +9028,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
-            <xm:f>Admin!$B$2:$B$65</xm:f>
+            <xm:f>Admin!$B$2:$B$82</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
@@ -8916,7 +9067,7 @@
         <v>538</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>414</v>
@@ -9504,7 +9655,7 @@
         <v>414</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>635</v>
@@ -9528,19 +9679,19 @@
         <v>683</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -9593,19 +9744,19 @@
         <v>679</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -9613,7 +9764,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -9818,18 +9969,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF292E-D431-41CB-9973-EE5E60DDD1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407C03A-7F38-4A90-90C0-3DE2448DA136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22968" yWindow="12" windowWidth="24540" windowHeight="13440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="852">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="2"/>
@@ -4412,6 +4412,10 @@
   </si>
   <si>
     <t>Sentosa SQ301</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -5285,10 +5289,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B82"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -5891,7 +5895,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>643</v>
+        <v>851</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>670</v>
@@ -5908,7 +5912,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5925,7 +5929,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>742</v>
+        <v>644</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5942,7 +5946,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>671</v>
@@ -5959,7 +5963,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>834</v>
+        <v>743</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5976,7 +5980,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>737</v>
+        <v>834</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5993,7 +5997,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>835</v>
+        <v>737</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -6010,7 +6014,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>738</v>
+        <v>835</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -6027,7 +6031,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -6044,7 +6048,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -6058,7 +6062,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -6072,7 +6076,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>836</v>
+        <v>741</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6086,7 +6090,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>267</v>
+        <v>836</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6100,7 +6104,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>651</v>
+        <v>267</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>747</v>
@@ -6111,7 +6115,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>325</v>
@@ -6122,7 +6126,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>740</v>
+        <v>652</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
@@ -6133,7 +6137,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>837</v>
+        <v>740</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>666</v>
@@ -6144,7 +6148,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>664</v>
@@ -6155,7 +6159,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>665</v>
@@ -6166,7 +6170,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>648</v>
+        <v>839</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>277</v>
@@ -6177,7 +6181,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>394</v>
@@ -6185,7 +6189,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>395</v>
@@ -6193,7 +6197,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>744</v>
+        <v>650</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>396</v>
@@ -6201,7 +6205,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>699</v>
@@ -6209,7 +6213,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>397</v>
@@ -6217,7 +6221,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>746</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>700</v>
@@ -6225,7 +6229,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>759</v>
@@ -6233,7 +6237,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>840</v>
+        <v>269</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>760</v>
@@ -6241,7 +6245,7 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>761</v>
@@ -6249,7 +6253,7 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>701</v>
@@ -6257,7 +6261,7 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>244</v>
+        <v>842</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>702</v>
@@ -6265,7 +6269,7 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>703</v>
@@ -6273,7 +6277,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>704</v>
@@ -6281,7 +6285,7 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>299</v>
@@ -6289,151 +6293,156 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>653</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>843</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B66" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B67" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B69" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
-        <v>259</v>
+        <v>850</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B71" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B72" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B73" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B75" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B76" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B77" s="1" t="s">
-        <v>645</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B79" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B80" s="1" t="s">
-        <v>258</v>
+        <v>647</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B81" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B82" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B83" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6452,7 +6461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -7754,7 +7763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -9026,17 +9035,17 @@
           </x14:formula1>
           <xm:sqref>R3:R102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
-          <x14:formula1>
-            <xm:f>Admin!$B$2:$B$82</xm:f>
-          </x14:formula1>
-          <xm:sqref>H3:H103</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
             <xm:f>Admin!$E$2:$E$38</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I103</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
+          <x14:formula1>
+            <xm:f>Admin!$B$2:$B$83</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BED24E-A3AB-4CE5-81CE-1030868A257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EF113-AC67-4BF4-92F1-34361A661BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="832">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="2"/>
@@ -1382,10 +1382,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TEL (required for PI)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t># 選択肢から適切なものを選びます</t>
     <rPh sb="2" eb="5">
       <t>センタクシ</t>
@@ -1511,55 +1507,6 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>コウカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t># 登録者の名前、連絡先 (所属する組織から発行されたメールアドレス)、所属する組織、Center name を列挙します。必ず NBDC へのデータ提供申請時の責任者を含めます。</t>
-    <rPh sb="2" eb="5">
-      <t>トウロクシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソシキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ソシキ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>レッキョ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>セキニンシャ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>フク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2478,10 +2425,6 @@
   </si>
   <si>
     <t>example@example.ac.jp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0000-00-0000</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4358,6 +4301,50 @@
   </si>
   <si>
     <t>TRANSCRIPTOMIC SINGLE CELL</t>
+  </si>
+  <si>
+    <t>Phone 削除</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t># 登録者の名前、所属組織、所属組織から発行されたメールアドレスを記入します。必ず DBCLS へのデータ提供申請時の責任者を含めます。</t>
+    <rPh sb="2" eb="5">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>セキニンシャ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4929,9 +4916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:B48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4942,7 +4931,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
@@ -4952,27 +4941,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
@@ -4980,12 +4969,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.5">
@@ -4995,7 +4984,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
@@ -5003,12 +4992,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -5054,22 +5043,22 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
-        <v>45588</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B31" s="7">
         <v>42285</v>
@@ -5077,7 +5066,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B32" s="7">
         <v>42429</v>
@@ -5085,7 +5074,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B33" s="7">
         <v>42430</v>
@@ -5093,7 +5082,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B34" s="7">
         <v>42486</v>
@@ -5101,7 +5090,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B35" s="7">
         <v>42760</v>
@@ -5109,7 +5098,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B36" s="7">
         <v>42935</v>
@@ -5117,7 +5106,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B37" s="7">
         <v>42935</v>
@@ -5125,7 +5114,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B38" s="7">
         <v>43227</v>
@@ -5133,7 +5122,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B39" s="7">
         <v>44103</v>
@@ -5141,7 +5130,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B40" s="7">
         <v>44622</v>
@@ -5149,7 +5138,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B41" s="7">
         <v>44678</v>
@@ -5157,7 +5146,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B42" s="7">
         <v>44918</v>
@@ -5165,7 +5154,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B43" s="7">
         <v>45321</v>
@@ -5173,7 +5162,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B44" s="7">
         <v>45429</v>
@@ -5181,7 +5170,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B45" s="7">
         <v>45457</v>
@@ -5189,7 +5178,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B46" s="7">
         <v>45478</v>
@@ -5197,10 +5186,18 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B47" s="7">
         <v>45588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B48" s="7">
+        <v>45673</v>
       </c>
     </row>
   </sheetData>
@@ -5273,7 +5270,7 @@
         <v>361</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>334</v>
@@ -5285,13 +5282,13 @@
         <v>334</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5314,13 +5311,13 @@
         <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5332,13 +5329,13 @@
         <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5352,7 +5349,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>279</v>
@@ -5364,7 +5361,7 @@
         <v>363</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>335</v>
@@ -5373,22 +5370,22 @@
         <v>355</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5414,16 +5411,16 @@
         <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
@@ -5434,7 +5431,7 @@
         <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>281</v>
@@ -5443,22 +5440,22 @@
         <v>303</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
@@ -5475,7 +5472,7 @@
         <v>282</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>358</v>
@@ -5490,7 +5487,7 @@
         <v>369</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
@@ -5513,7 +5510,7 @@
         <v>359</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>377</v>
@@ -5522,7 +5519,7 @@
         <v>370</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
@@ -5545,7 +5542,7 @@
         <v>360</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>378</v>
@@ -5554,7 +5551,7 @@
         <v>371</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
@@ -5574,10 +5571,10 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>339</v>
@@ -5586,7 +5583,7 @@
         <v>372</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
@@ -5603,22 +5600,22 @@
         <v>286</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
@@ -5635,19 +5632,19 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
@@ -5655,28 +5652,28 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
@@ -5687,16 +5684,16 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>340</v>
@@ -5705,7 +5702,7 @@
         <v>373</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
@@ -5716,13 +5713,13 @@
         <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5734,7 +5731,7 @@
         <v>374</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
@@ -5742,25 +5739,25 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
@@ -5768,10 +5765,10 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>312</v>
@@ -5780,10 +5777,10 @@
         <v>379</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -5800,15 +5797,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5817,10 +5814,10 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
@@ -5828,21 +5825,21 @@
         <v>257</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5851,49 +5848,49 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>380</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5905,12 +5902,12 @@
         <v>381</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5922,12 +5919,12 @@
         <v>382</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5939,12 +5936,12 @@
         <v>383</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5953,15 +5950,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5970,15 +5967,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5987,18 +5984,18 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>384</v>
@@ -6006,7 +6003,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6020,7 +6017,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6034,10 +6031,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>387</v>
@@ -6070,7 +6067,7 @@
         <v>260</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>390</v>
@@ -6081,7 +6078,7 @@
         <v>261</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>391</v>
@@ -6092,7 +6089,7 @@
         <v>262</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>392</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>396</v>
@@ -6135,15 +6132,15 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>397</v>
@@ -6154,31 +6151,31 @@
         <v>266</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
@@ -6186,31 +6183,31 @@
         <v>267</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
@@ -6228,62 +6225,62 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6299,9 +6296,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6312,102 +6309,96 @@
     <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="26" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="F10" s="18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
         <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="22">
         <v>6</v>
       </c>
@@ -6434,17 +6425,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
-        <v>45457</v>
+        <v>45677</v>
       </c>
     </row>
   </sheetData>
@@ -6482,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -6495,7 +6486,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -6526,7 +6517,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -6539,33 +6530,33 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
@@ -6585,18 +6576,18 @@
     </row>
     <row r="21" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -6604,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -6619,12 +6610,12 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
@@ -6632,21 +6623,21 @@
     </row>
     <row r="30" spans="1:3" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -6666,7 +6657,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
@@ -6677,7 +6668,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
@@ -6697,7 +6688,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
@@ -6734,7 +6725,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -6762,18 +6753,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -6837,61 +6828,61 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>812</v>
-      </c>
       <c r="S1" s="28" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
@@ -6899,55 +6890,55 @@
         <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="G2" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>797</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>824</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="R2" s="25" t="s">
         <v>825</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>827</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>828</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="19"/>
@@ -7635,40 +7626,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="L1" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -7687,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>217</v>
@@ -7708,25 +7699,25 @@
         <v>222</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>413</v>
-      </c>
       <c r="Q2" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -7734,7 +7725,7 @@
         <v>116</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -7745,7 +7736,7 @@
         <v>117</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -7756,7 +7747,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -7767,7 +7758,7 @@
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -7778,7 +7769,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -7789,7 +7780,7 @@
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -7800,7 +7791,7 @@
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -7811,7 +7802,7 @@
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -7822,7 +7813,7 @@
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -7833,7 +7824,7 @@
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -7844,7 +7835,7 @@
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -7855,7 +7846,7 @@
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -7866,7 +7857,7 @@
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -7877,7 +7868,7 @@
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -7888,7 +7879,7 @@
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -7899,7 +7890,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -7910,7 +7901,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -7921,7 +7912,7 @@
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
@@ -7932,7 +7923,7 @@
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
@@ -7943,7 +7934,7 @@
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
@@ -7954,7 +7945,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -7965,7 +7956,7 @@
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -7976,7 +7967,7 @@
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
@@ -7987,7 +7978,7 @@
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -7998,7 +7989,7 @@
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -8009,7 +8000,7 @@
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -8020,7 +8011,7 @@
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -8031,7 +8022,7 @@
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -8042,7 +8033,7 @@
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
@@ -8053,7 +8044,7 @@
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -8064,7 +8055,7 @@
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -8075,7 +8066,7 @@
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
@@ -8086,7 +8077,7 @@
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
@@ -8097,7 +8088,7 @@
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
@@ -8108,7 +8099,7 @@
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
@@ -8119,7 +8110,7 @@
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
@@ -8130,7 +8121,7 @@
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
@@ -8141,7 +8132,7 @@
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
@@ -8152,7 +8143,7 @@
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -8163,7 +8154,7 @@
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
@@ -8174,7 +8165,7 @@
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
@@ -8185,7 +8176,7 @@
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
@@ -8196,7 +8187,7 @@
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
@@ -8207,7 +8198,7 @@
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
@@ -8218,7 +8209,7 @@
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
@@ -8229,7 +8220,7 @@
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
@@ -8240,7 +8231,7 @@
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
@@ -8251,7 +8242,7 @@
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
@@ -8262,7 +8253,7 @@
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
@@ -8273,7 +8264,7 @@
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
@@ -8284,7 +8275,7 @@
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
@@ -8295,7 +8286,7 @@
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
@@ -8306,7 +8297,7 @@
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
@@ -8317,7 +8308,7 @@
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
@@ -8328,7 +8319,7 @@
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
@@ -8339,7 +8330,7 @@
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
@@ -8350,7 +8341,7 @@
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
@@ -8361,7 +8352,7 @@
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
@@ -8372,7 +8363,7 @@
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
@@ -8383,7 +8374,7 @@
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
@@ -8394,7 +8385,7 @@
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
@@ -8405,7 +8396,7 @@
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
@@ -8416,7 +8407,7 @@
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -8427,7 +8418,7 @@
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
@@ -8438,7 +8429,7 @@
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
@@ -8449,7 +8440,7 @@
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
@@ -8460,7 +8451,7 @@
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
@@ -8471,7 +8462,7 @@
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
@@ -8482,7 +8473,7 @@
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
@@ -8493,7 +8484,7 @@
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
@@ -8504,7 +8495,7 @@
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
@@ -8515,7 +8506,7 @@
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
@@ -8526,7 +8517,7 @@
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
@@ -8537,7 +8528,7 @@
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
@@ -8548,7 +8539,7 @@
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
@@ -8559,7 +8550,7 @@
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
@@ -8570,7 +8561,7 @@
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
@@ -8581,7 +8572,7 @@
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
@@ -8592,7 +8583,7 @@
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
@@ -8603,7 +8594,7 @@
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
@@ -8614,7 +8605,7 @@
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
@@ -8625,7 +8616,7 @@
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
@@ -8636,7 +8627,7 @@
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
@@ -8647,7 +8638,7 @@
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
@@ -8658,7 +8649,7 @@
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
@@ -8669,7 +8660,7 @@
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
@@ -8680,7 +8671,7 @@
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
@@ -8691,7 +8682,7 @@
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
@@ -8702,7 +8693,7 @@
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
@@ -8713,7 +8704,7 @@
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
@@ -8724,7 +8715,7 @@
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
@@ -8735,7 +8726,7 @@
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
@@ -8746,7 +8737,7 @@
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
@@ -8757,7 +8748,7 @@
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
@@ -8768,7 +8759,7 @@
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
@@ -8779,7 +8770,7 @@
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
@@ -8790,7 +8781,7 @@
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
@@ -8801,7 +8792,7 @@
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
@@ -8812,7 +8803,7 @@
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
@@ -8823,7 +8814,7 @@
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -8910,22 +8901,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -8936,516 +8927,516 @@
         <v>331</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -9483,64 +9474,64 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>683</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -9548,13 +9539,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>352</v>
@@ -9572,40 +9563,40 @@
         <v>333</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>678</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>679</v>
-      </c>
       <c r="Q2" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="T2" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="R2" s="23" t="s">
-        <v>772</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>774</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -9613,7 +9604,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -9732,25 +9723,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -9758,7 +9749,7 @@
         <v>330</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>365</v>
@@ -9818,18 +9809,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EF113-AC67-4BF4-92F1-34361A661BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C01FF4-66E0-4A5D-AF18-006077DA9617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="833">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="2"/>
@@ -4343,6 +4343,22 @@
     </rPh>
     <rPh sb="63" eb="64">
       <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書式設定を文字列に変更</t>
+    <rPh sb="0" eb="2">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4540,54 +4556,55 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -4916,11 +4933,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B48"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4930,42 +4945,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A8" s="14"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
@@ -4983,12 +4998,12 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
@@ -4996,7 +5011,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>783</v>
       </c>
     </row>
@@ -5006,19 +5021,19 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="15"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="16"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="17"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>403</v>
       </c>
@@ -5047,8 +5062,8 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="7">
-        <v>45673</v>
+      <c r="A28" s="4">
+        <v>45831</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -5060,7 +5075,7 @@
       <c r="A31" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>42285</v>
       </c>
     </row>
@@ -5068,7 +5083,7 @@
       <c r="A32" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>42429</v>
       </c>
     </row>
@@ -5076,7 +5091,7 @@
       <c r="A33" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>42430</v>
       </c>
     </row>
@@ -5084,7 +5099,7 @@
       <c r="A34" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="4">
         <v>42486</v>
       </c>
     </row>
@@ -5092,7 +5107,7 @@
       <c r="A35" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>42760</v>
       </c>
     </row>
@@ -5100,7 +5115,7 @@
       <c r="A36" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>42935</v>
       </c>
     </row>
@@ -5108,7 +5123,7 @@
       <c r="A37" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="4">
         <v>42935</v>
       </c>
     </row>
@@ -5116,7 +5131,7 @@
       <c r="A38" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="4">
         <v>43227</v>
       </c>
     </row>
@@ -5124,7 +5139,7 @@
       <c r="A39" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="4">
         <v>44103</v>
       </c>
     </row>
@@ -5132,7 +5147,7 @@
       <c r="A40" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="4">
         <v>44622</v>
       </c>
     </row>
@@ -5140,7 +5155,7 @@
       <c r="A41" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="4">
         <v>44678</v>
       </c>
     </row>
@@ -5148,7 +5163,7 @@
       <c r="A42" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="4">
         <v>44918</v>
       </c>
     </row>
@@ -5156,7 +5171,7 @@
       <c r="A43" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="4">
         <v>45321</v>
       </c>
     </row>
@@ -5164,7 +5179,7 @@
       <c r="A44" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="4">
         <v>45429</v>
       </c>
     </row>
@@ -5172,7 +5187,7 @@
       <c r="A45" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="4">
         <v>45457</v>
       </c>
     </row>
@@ -5180,7 +5195,7 @@
       <c r="A46" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="4">
         <v>45478</v>
       </c>
     </row>
@@ -5188,7 +5203,7 @@
       <c r="A47" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="4">
         <v>45588</v>
       </c>
     </row>
@@ -5196,8 +5211,16 @@
       <c r="A48" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="4">
         <v>45673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B49" s="4">
+        <v>45831</v>
       </c>
     </row>
   </sheetData>
@@ -5242,52 +5265,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="10" t="s">
         <v>774</v>
       </c>
     </row>
@@ -5331,7 +5354,7 @@
       <c r="M2" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="5" t="s">
         <v>598</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -5381,7 +5404,7 @@
       <c r="M3" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="5" t="s">
         <v>599</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -5419,7 +5442,7 @@
       <c r="L4" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="5" t="s">
         <v>600</v>
       </c>
     </row>
@@ -5454,7 +5477,7 @@
       <c r="L5" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="5" t="s">
         <v>601</v>
       </c>
     </row>
@@ -5486,7 +5509,7 @@
       <c r="L6" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="5" t="s">
         <v>602</v>
       </c>
     </row>
@@ -5518,7 +5541,7 @@
       <c r="L7" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="5" t="s">
         <v>603</v>
       </c>
     </row>
@@ -5550,7 +5573,7 @@
       <c r="L8" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="5" t="s">
         <v>604</v>
       </c>
     </row>
@@ -5582,7 +5605,7 @@
       <c r="L9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="5" t="s">
         <v>605</v>
       </c>
     </row>
@@ -5614,7 +5637,7 @@
       <c r="L10" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="5" t="s">
         <v>606</v>
       </c>
     </row>
@@ -5643,7 +5666,7 @@
       <c r="L11" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="5" t="s">
         <v>607</v>
       </c>
     </row>
@@ -5672,7 +5695,7 @@
       <c r="L12" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="5" t="s">
         <v>608</v>
       </c>
     </row>
@@ -5701,7 +5724,7 @@
       <c r="L13" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="5" t="s">
         <v>609</v>
       </c>
     </row>
@@ -5730,7 +5753,7 @@
       <c r="L14" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="5" t="s">
         <v>610</v>
       </c>
     </row>
@@ -5756,7 +5779,7 @@
       <c r="L15" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="5" t="s">
         <v>611</v>
       </c>
     </row>
@@ -5779,7 +5802,7 @@
       <c r="L16" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="5" t="s">
         <v>612</v>
       </c>
     </row>
@@ -5799,7 +5822,7 @@
       <c r="K17" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="5" t="s">
         <v>613</v>
       </c>
     </row>
@@ -5816,7 +5839,7 @@
       <c r="K18" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="5" t="s">
         <v>614</v>
       </c>
     </row>
@@ -5833,7 +5856,7 @@
       <c r="K19" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="5" t="s">
         <v>615</v>
       </c>
     </row>
@@ -5850,7 +5873,7 @@
       <c r="K20" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="5" t="s">
         <v>616</v>
       </c>
     </row>
@@ -5867,7 +5890,7 @@
       <c r="K21" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="5" t="s">
         <v>617</v>
       </c>
     </row>
@@ -5884,7 +5907,7 @@
       <c r="K22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="5" t="s">
         <v>618</v>
       </c>
     </row>
@@ -5901,7 +5924,7 @@
       <c r="K23" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="5" t="s">
         <v>619</v>
       </c>
     </row>
@@ -5918,7 +5941,7 @@
       <c r="K24" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="5" t="s">
         <v>620</v>
       </c>
     </row>
@@ -5935,7 +5958,7 @@
       <c r="K25" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="5" t="s">
         <v>621</v>
       </c>
     </row>
@@ -5952,7 +5975,7 @@
       <c r="K26" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N26" s="5" t="s">
         <v>622</v>
       </c>
     </row>
@@ -5969,7 +5992,7 @@
       <c r="K27" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="5" t="s">
         <v>623</v>
       </c>
     </row>
@@ -6298,145 +6321,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6640625" style="1"/>
+    <col min="1" max="1" width="27.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16" style="11" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="24.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="13" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="5"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="11" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A24" s="7">
-        <v>45677</v>
-      </c>
+      <c r="A24" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6463,322 +6484,322 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="1"/>
-    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="1"/>
+    <col min="1" max="1" width="48.6640625" style="11"/>
+    <col min="2" max="2" width="61.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="4"/>
+      <c r="A3" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="22">
+      <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="22">
+      <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="4"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="11" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="22" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="23" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A23" s="22">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A24" s="22">
+      <c r="A24" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A25" s="22">
+      <c r="A25" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="11" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="12" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A29" s="4"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="52.2" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="23" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="24" t="s">
         <v>715</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="24" t="s">
         <v>714</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="24" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A32" s="22">
+      <c r="A32" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="22">
+      <c r="A33" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="22">
+      <c r="A34" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="11" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="12" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="22">
+      <c r="A38" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="22">
+      <c r="A39" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="22">
+      <c r="A40" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="22">
+      <c r="A44" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="22">
+      <c r="A45" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="22">
+      <c r="A46" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="11" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="22">
+      <c r="A50" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="22">
+      <c r="A51" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="22">
+      <c r="A52" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="11" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="12" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="22">
+      <c r="A56" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="22">
+      <c r="A57" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="22">
+      <c r="A58" s="19">
         <v>3</v>
       </c>
     </row>
@@ -6820,758 +6841,752 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="26" style="9"/>
-    <col min="2" max="2" width="26" style="1"/>
-    <col min="3" max="4" width="26" style="8"/>
-    <col min="5" max="16384" width="26" style="1"/>
+    <col min="1" max="1" width="26" style="27"/>
+    <col min="2" max="2" width="26" style="11"/>
+    <col min="3" max="4" width="26" style="26"/>
+    <col min="5" max="16384" width="26" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>811</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>812</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="12" t="s">
         <v>815</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="19" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7598,1225 +7613,1225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="36.109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="17" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="N3" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="N4" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O4" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="N5" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="N6" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="N7" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="N8" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O8" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="N9" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O9" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="N10" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="N11" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="N12" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O12" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="N13" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="N14" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="N15" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O15" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O16" s="1">
+      <c r="N16" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O16" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O17" s="1">
+      <c r="N17" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O18" s="1">
+      <c r="N18" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O18" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O19" s="1">
+      <c r="N19" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O19" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="N20" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O20" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O21" s="1">
+      <c r="N21" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O21" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O22" s="1">
+      <c r="N22" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O22" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O23" s="1">
+      <c r="N23" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O23" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O24" s="1">
+      <c r="N24" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O24" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O25" s="1">
+      <c r="N25" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O25" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O26" s="1">
+      <c r="N26" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O26" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O27" s="1">
+      <c r="N27" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O27" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O28" s="1">
+      <c r="N28" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O28" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O29" s="1">
+      <c r="N29" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O29" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O30" s="1">
+      <c r="N30" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O30" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O31" s="1">
+      <c r="N31" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O31" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O32" s="1">
+      <c r="N32" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O32" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O33" s="1">
+      <c r="N33" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O33" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O34" s="1">
+      <c r="N34" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O34" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O35" s="1">
+      <c r="N35" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O35" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O36" s="1">
+      <c r="N36" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O36" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O37" s="1">
+      <c r="N37" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O37" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O38" s="1">
+      <c r="N38" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O38" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O39" s="1">
+      <c r="N39" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O39" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O40" s="1">
+      <c r="N40" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O40" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O41" s="1">
+      <c r="N41" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O41" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O42" s="1">
+      <c r="N42" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O42" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O43" s="1">
+      <c r="N43" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O43" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O44" s="1">
+      <c r="N44" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O44" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O45" s="1">
+      <c r="N45" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O45" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O46" s="1">
+      <c r="N46" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O46" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O47" s="1">
+      <c r="N47" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O47" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O48" s="1">
+      <c r="N48" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O48" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O49" s="1">
+      <c r="N49" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O49" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O50" s="1">
+      <c r="N50" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O50" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O51" s="1">
+      <c r="N51" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O51" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O52" s="1">
+      <c r="N52" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O52" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O53" s="1">
+      <c r="N53" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O53" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O54" s="1">
+      <c r="N54" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O54" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O55" s="1">
+      <c r="N55" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O55" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O56" s="1">
+      <c r="N56" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O56" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O57" s="1">
+      <c r="N57" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O57" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O58" s="1">
+      <c r="N58" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O58" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O59" s="1">
+      <c r="N59" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O59" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O60" s="1">
+      <c r="N60" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O60" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N61" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O61" s="1">
+      <c r="N61" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O61" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O62" s="1">
+      <c r="N62" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O62" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O63" s="1">
+      <c r="N63" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O63" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O64" s="1">
+      <c r="N64" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O64" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O65" s="1">
+      <c r="N65" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O65" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O66" s="1">
+      <c r="N66" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O66" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O67" s="1">
+      <c r="N67" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O67" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O68" s="1">
+      <c r="N68" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O68" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="N69" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O69" s="1">
+      <c r="N69" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O69" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O70" s="1">
+      <c r="N70" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O70" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="N71" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O71" s="1">
+      <c r="N71" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O71" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O72" s="1">
+      <c r="N72" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O72" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O73" s="1">
+      <c r="N73" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O73" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O74" s="1">
+      <c r="N74" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O74" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O75" s="1">
+      <c r="N75" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O75" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="N76" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O76" s="1">
+      <c r="N76" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O76" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="N77" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O77" s="1">
+      <c r="N77" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O77" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O78" s="1">
+      <c r="N78" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O78" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="N79" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O79" s="1">
+      <c r="N79" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O79" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O80" s="1">
+      <c r="N80" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O80" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O81" s="1">
+      <c r="N81" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O81" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="N82" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O82" s="1">
+      <c r="N82" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O82" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="N83" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O83" s="1">
+      <c r="N83" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O83" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="N84" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O84" s="1">
+      <c r="N84" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O84" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="N85" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O85" s="1">
+      <c r="N85" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O85" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="N86" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O86" s="1">
+      <c r="N86" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O86" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O87" s="1">
+      <c r="N87" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O87" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="N88" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O88" s="1">
+      <c r="N88" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O88" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="N89" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O89" s="1">
+      <c r="N89" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O89" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="N90" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O90" s="1">
+      <c r="N90" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O90" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N91" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O91" s="1">
+      <c r="N91" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O91" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="N92" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O92" s="1">
+      <c r="N92" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O92" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="N93" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O93" s="1">
+      <c r="N93" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O93" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="N94" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O94" s="1">
+      <c r="N94" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O94" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="N95" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O95" s="1">
+      <c r="N95" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O95" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="N96" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O96" s="1">
+      <c r="N96" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O96" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="N97" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O97" s="1">
+      <c r="N97" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O97" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="N98" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O98" s="1">
+      <c r="N98" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O98" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="N99" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O99" s="1">
+      <c r="N99" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O99" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="N100" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O100" s="1">
+      <c r="N100" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O100" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="N101" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O101" s="1">
+      <c r="N101" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O101" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="N102" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O102" s="1">
+      <c r="N102" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O102" s="11">
         <v>1</v>
       </c>
     </row>
@@ -8895,547 +8910,547 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" style="9"/>
-    <col min="2" max="16384" width="36.88671875" style="1"/>
+    <col min="1" max="1" width="36.88671875" style="27"/>
+    <col min="2" max="16384" width="36.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="23" t="s">
         <v>730</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="19" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="19" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="19" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="19" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="19" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="19" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="19" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="19" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="19" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="19" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="19" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="19" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="19" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="19" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="19" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="19" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="19" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="19" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="19" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="19" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="19" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="19" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="19" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="19" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="19" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="19" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="19" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="19" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="19" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="19" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="19" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="19" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="19" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="19" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="19" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="19" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="19" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="19" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="19" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="19" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="19" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="19" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="19" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="19" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="19" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9469,186 +9484,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="18.88671875" style="1"/>
+    <col min="1" max="16384" width="18.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="29" t="s">
         <v>681</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="30" t="s">
         <v>772</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="23" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>672</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="31" t="s">
         <v>770</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="12" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9718,57 +9733,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="28.109375" style="1"/>
+    <col min="1" max="16384" width="28.109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9802,24 +9817,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.33203125" style="1"/>
+    <col min="1" max="1" width="65" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>726</v>
       </c>
     </row>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407C03A-7F38-4A90-90C0-3DE2448DA136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D94E5-30A3-43D0-A2DB-05FDEBF26EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="850">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="2"/>
@@ -1379,10 +1379,6 @@
   </si>
   <si>
     <t>1 (Principal Investigator)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TEL (required for PI)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2478,10 +2474,6 @@
   </si>
   <si>
     <t>example@example.ac.jp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0000-00-0000</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4347,10 +4339,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2025/xx/yy</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Illumina HiSeq X</t>
   </si>
   <si>
@@ -4415,6 +4403,13 @@
   </si>
   <si>
     <t>Illumina NovaSeq X Plus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>phone 削除</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4987,11 +4982,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B48"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5002,7 +4995,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
@@ -5012,27 +5005,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
@@ -5040,12 +5033,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.5">
@@ -5055,7 +5048,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
@@ -5063,12 +5056,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -5114,22 +5107,22 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="7" t="s">
-        <v>829</v>
+      <c r="A28" s="7">
+        <v>45953</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B31" s="7">
         <v>42285</v>
@@ -5137,7 +5130,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B32" s="7">
         <v>42429</v>
@@ -5145,7 +5138,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B33" s="7">
         <v>42430</v>
@@ -5153,7 +5146,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B34" s="7">
         <v>42486</v>
@@ -5161,7 +5154,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B35" s="7">
         <v>42760</v>
@@ -5169,7 +5162,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B36" s="7">
         <v>42935</v>
@@ -5177,7 +5170,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B37" s="7">
         <v>42935</v>
@@ -5185,7 +5178,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B38" s="7">
         <v>43227</v>
@@ -5193,7 +5186,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B39" s="7">
         <v>44103</v>
@@ -5201,7 +5194,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B40" s="7">
         <v>44622</v>
@@ -5209,7 +5202,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B41" s="7">
         <v>44678</v>
@@ -5217,7 +5210,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B42" s="7">
         <v>44918</v>
@@ -5225,7 +5218,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B43" s="7">
         <v>45321</v>
@@ -5233,7 +5226,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B44" s="7">
         <v>45429</v>
@@ -5241,7 +5234,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B45" s="7">
         <v>45457</v>
@@ -5249,7 +5242,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B46" s="7">
         <v>45478</v>
@@ -5257,7 +5250,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B47" s="7">
         <v>45588</v>
@@ -5265,10 +5258,18 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>829</v>
+        <v>849</v>
+      </c>
+      <c r="B48" s="7">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B49" s="7">
+        <v>45953</v>
       </c>
     </row>
   </sheetData>
@@ -5291,7 +5292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5343,7 +5344,7 @@
         <v>361</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>334</v>
@@ -5355,13 +5356,13 @@
         <v>334</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5369,7 +5370,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>271</v>
@@ -5384,13 +5385,13 @@
         <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5402,13 +5403,13 @@
         <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5419,10 +5420,10 @@
         <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>279</v>
@@ -5434,7 +5435,7 @@
         <v>363</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>335</v>
@@ -5443,22 +5444,22 @@
         <v>355</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5484,16 +5485,16 @@
         <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
@@ -5504,7 +5505,7 @@
         <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>281</v>
@@ -5513,22 +5514,22 @@
         <v>303</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
@@ -5545,7 +5546,7 @@
         <v>282</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>358</v>
@@ -5560,7 +5561,7 @@
         <v>369</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
@@ -5583,7 +5584,7 @@
         <v>359</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>377</v>
@@ -5592,7 +5593,7 @@
         <v>370</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
@@ -5615,7 +5616,7 @@
         <v>360</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>378</v>
@@ -5624,7 +5625,7 @@
         <v>371</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
@@ -5632,7 +5633,7 @@
         <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>276</v>
@@ -5644,10 +5645,10 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>339</v>
@@ -5656,7 +5657,7 @@
         <v>372</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
@@ -5673,22 +5674,22 @@
         <v>286</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
@@ -5705,19 +5706,19 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
@@ -5725,28 +5726,28 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
@@ -5754,19 +5755,19 @@
         <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>340</v>
@@ -5775,7 +5776,7 @@
         <v>373</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
@@ -5783,16 +5784,16 @@
         <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5804,7 +5805,7 @@
         <v>374</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
@@ -5815,22 +5816,22 @@
         <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
@@ -5838,10 +5839,10 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>312</v>
@@ -5850,10 +5851,10 @@
         <v>379</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -5861,7 +5862,7 @@
         <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>288</v>
@@ -5870,15 +5871,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5887,32 +5888,32 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5921,49 +5922,49 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>380</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5975,12 +5976,12 @@
         <v>381</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5992,12 +5993,12 @@
         <v>382</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -6009,12 +6010,12 @@
         <v>383</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -6023,15 +6024,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -6040,15 +6041,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -6057,18 +6058,18 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>384</v>
@@ -6076,7 +6077,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6090,7 +6091,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6107,7 +6108,7 @@
         <v>267</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>387</v>
@@ -6115,7 +6116,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>325</v>
@@ -6126,7 +6127,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
@@ -6137,10 +6138,10 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>390</v>
@@ -6148,10 +6149,10 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>391</v>
@@ -6159,10 +6160,10 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>392</v>
@@ -6170,7 +6171,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>277</v>
@@ -6181,7 +6182,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>394</v>
@@ -6189,7 +6190,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>395</v>
@@ -6197,7 +6198,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>396</v>
@@ -6205,15 +6206,15 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>397</v>
@@ -6221,10 +6222,10 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
@@ -6232,7 +6233,7 @@
         <v>268</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
@@ -6240,31 +6241,31 @@
         <v>269</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
@@ -6272,7 +6273,7 @@
         <v>244</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
@@ -6280,7 +6281,7 @@
         <v>245</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
@@ -6308,77 +6309,77 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B66" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B67" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B69" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.5">
@@ -6418,17 +6419,17 @@
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B79" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B80" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.5">
@@ -6459,9 +6460,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6472,102 +6475,96 @@
     <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="26" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="26" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="F10" s="18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
         <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="22">
         <v>6</v>
       </c>
@@ -6594,17 +6591,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
-        <v>45457</v>
+        <v>45953</v>
       </c>
     </row>
   </sheetData>
@@ -6642,7 +6639,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -6655,7 +6652,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -6686,7 +6683,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -6699,33 +6696,33 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>593</v>
-      </c>
       <c r="D16" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
@@ -6745,18 +6742,18 @@
     </row>
     <row r="21" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -6764,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -6779,12 +6776,12 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
@@ -6792,21 +6789,21 @@
     </row>
     <row r="30" spans="1:3" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -6826,7 +6823,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
@@ -6837,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
@@ -6857,7 +6854,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
@@ -6894,7 +6891,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -6922,18 +6919,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -6997,61 +6994,61 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>805</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>807</v>
-      </c>
       <c r="S1" s="28" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
@@ -7059,55 +7056,55 @@
         <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="R2" s="25" t="s">
         <v>821</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>822</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>823</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="19"/>
@@ -7763,7 +7760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -7795,40 +7792,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>559</v>
       </c>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -7847,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>217</v>
@@ -7868,25 +7865,25 @@
         <v>222</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>413</v>
-      </c>
       <c r="Q2" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -7894,7 +7891,7 @@
         <v>116</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -7905,7 +7902,7 @@
         <v>117</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -7916,7 +7913,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -7927,7 +7924,7 @@
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -7938,7 +7935,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -7949,7 +7946,7 @@
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -7960,7 +7957,7 @@
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -7971,7 +7968,7 @@
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -7982,7 +7979,7 @@
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -7993,7 +7990,7 @@
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -8004,7 +8001,7 @@
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -8015,7 +8012,7 @@
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -8026,7 +8023,7 @@
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -8037,7 +8034,7 @@
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -8048,7 +8045,7 @@
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -8059,7 +8056,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -8070,7 +8067,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -8081,7 +8078,7 @@
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
@@ -8092,7 +8089,7 @@
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
@@ -8103,7 +8100,7 @@
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
@@ -8114,7 +8111,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -8125,7 +8122,7 @@
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -8136,7 +8133,7 @@
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
@@ -8147,7 +8144,7 @@
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -8158,7 +8155,7 @@
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -8169,7 +8166,7 @@
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -8180,7 +8177,7 @@
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -8191,7 +8188,7 @@
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -8202,7 +8199,7 @@
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
@@ -8213,7 +8210,7 @@
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -8224,7 +8221,7 @@
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -8235,7 +8232,7 @@
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
@@ -8246,7 +8243,7 @@
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
@@ -8257,7 +8254,7 @@
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
@@ -8268,7 +8265,7 @@
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
@@ -8279,7 +8276,7 @@
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
@@ -8290,7 +8287,7 @@
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
@@ -8301,7 +8298,7 @@
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
@@ -8312,7 +8309,7 @@
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -8323,7 +8320,7 @@
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
@@ -8334,7 +8331,7 @@
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
@@ -8345,7 +8342,7 @@
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
@@ -8356,7 +8353,7 @@
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
@@ -8367,7 +8364,7 @@
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
@@ -8378,7 +8375,7 @@
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
@@ -8389,7 +8386,7 @@
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
@@ -8400,7 +8397,7 @@
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
@@ -8411,7 +8408,7 @@
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
@@ -8422,7 +8419,7 @@
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
@@ -8433,7 +8430,7 @@
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
@@ -8444,7 +8441,7 @@
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
@@ -8455,7 +8452,7 @@
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
@@ -8466,7 +8463,7 @@
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
@@ -8477,7 +8474,7 @@
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
@@ -8488,7 +8485,7 @@
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
@@ -8499,7 +8496,7 @@
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
@@ -8510,7 +8507,7 @@
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
@@ -8521,7 +8518,7 @@
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
@@ -8532,7 +8529,7 @@
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
@@ -8543,7 +8540,7 @@
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
@@ -8554,7 +8551,7 @@
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
@@ -8565,7 +8562,7 @@
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
@@ -8576,7 +8573,7 @@
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -8587,7 +8584,7 @@
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
@@ -8598,7 +8595,7 @@
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
@@ -8609,7 +8606,7 @@
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
@@ -8620,7 +8617,7 @@
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
@@ -8631,7 +8628,7 @@
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
@@ -8642,7 +8639,7 @@
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
@@ -8653,7 +8650,7 @@
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
@@ -8664,7 +8661,7 @@
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
@@ -8675,7 +8672,7 @@
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
@@ -8686,7 +8683,7 @@
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
@@ -8697,7 +8694,7 @@
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
@@ -8708,7 +8705,7 @@
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
@@ -8719,7 +8716,7 @@
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
@@ -8730,7 +8727,7 @@
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
@@ -8741,7 +8738,7 @@
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
@@ -8752,7 +8749,7 @@
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
@@ -8763,7 +8760,7 @@
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
@@ -8774,7 +8771,7 @@
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
@@ -8785,7 +8782,7 @@
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
@@ -8796,7 +8793,7 @@
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
@@ -8807,7 +8804,7 @@
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
@@ -8818,7 +8815,7 @@
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
@@ -8829,7 +8826,7 @@
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
@@ -8840,7 +8837,7 @@
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
@@ -8851,7 +8848,7 @@
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
@@ -8862,7 +8859,7 @@
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
@@ -8873,7 +8870,7 @@
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
@@ -8884,7 +8881,7 @@
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
@@ -8895,7 +8892,7 @@
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
@@ -8906,7 +8903,7 @@
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
@@ -8917,7 +8914,7 @@
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
@@ -8928,7 +8925,7 @@
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
@@ -8939,7 +8936,7 @@
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
@@ -8950,7 +8947,7 @@
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
@@ -8961,7 +8958,7 @@
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
@@ -8972,7 +8969,7 @@
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
@@ -8983,7 +8980,7 @@
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -9070,22 +9067,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -9096,516 +9093,516 @@
         <v>331</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>552</v>
-      </c>
       <c r="E2" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>560</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -9643,64 +9640,64 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>683</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="U1" s="10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -9708,13 +9705,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>352</v>
@@ -9732,40 +9729,40 @@
         <v>333</v>
       </c>
       <c r="J2" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>561</v>
-      </c>
       <c r="L2" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>678</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>679</v>
-      </c>
       <c r="Q2" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="S2" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="S2" s="23" t="s">
-        <v>768</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>769</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -9773,7 +9770,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -9892,25 +9889,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -9918,7 +9915,7 @@
         <v>330</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>365</v>
@@ -9978,18 +9975,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
